--- a/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/Manual_Balance.xlsx
+++ b/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/Manual_Balance.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhphan/PycharmProjects/HomeAccounting/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A54E3F8-ABF3-5F45-A403-8C1FF59A79FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3C7490-B24C-2E40-A752-B5EB7E6153D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21080" yWindow="4140" windowWidth="28040" windowHeight="17440" xr2:uid="{211A79C5-B985-E94E-B0C1-2BF2BF8B9373}"/>
+    <workbookView xWindow="11600" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{211A79C5-B985-E94E-B0C1-2BF2BF8B9373}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -303,6 +303,144 @@
   </si>
   <si>
     <t>Interest</t>
+  </si>
+  <si>
+    <t>Lopia</t>
+  </si>
+  <si>
+    <t>Clinic - Meo</t>
+  </si>
+  <si>
+    <t>Water Bill</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>VitCash</t>
+  </si>
+  <si>
+    <t>MacDonald</t>
+  </si>
+  <si>
+    <t>Gyomu Mark Nakamachidai</t>
+  </si>
+  <si>
+    <t>MeoYB</t>
+  </si>
+  <si>
+    <t>Vit won bet</t>
+  </si>
+  <si>
+    <t>Meo lost bet</t>
+  </si>
+  <si>
+    <t>Batting Center</t>
+  </si>
+  <si>
+    <t>Correct Muji Ball (wrong bill)</t>
+  </si>
+  <si>
+    <t>Seria</t>
+  </si>
+  <si>
+    <t>HomeCash</t>
+  </si>
+  <si>
+    <t>Kodomo No Kuni</t>
+  </si>
+  <si>
+    <t>Lunch at Kodomo Kuni</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>Mangoes</t>
+  </si>
+  <si>
+    <t>Meo loan</t>
+  </si>
+  <si>
+    <t>Sieu paid meal</t>
+  </si>
+  <si>
+    <t>Ramen</t>
+  </si>
+  <si>
+    <t>From Sieu</t>
+  </si>
+  <si>
+    <t>To Sieu</t>
+  </si>
+  <si>
+    <t>Print documents (claim)</t>
+  </si>
+  <si>
+    <t>Nancy stocks</t>
+  </si>
+  <si>
+    <t>Dish washing fee</t>
+  </si>
+  <si>
+    <t>Tool overdue fee</t>
+  </si>
+  <si>
+    <t>Overdue won</t>
+  </si>
+  <si>
+    <t>Shopping Kokoku</t>
+  </si>
+  <si>
+    <t>Akachan Honpo</t>
+  </si>
+  <si>
+    <t>HAC</t>
+  </si>
+  <si>
+    <t>Lalaport</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Electric, Gas</t>
+  </si>
+  <si>
+    <t>To Sieu (probably food/eating out)</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Eating Out</t>
+  </si>
+  <si>
+    <t>Charge from Credit Card</t>
+  </si>
+  <si>
+    <t>Credit Card marked as "Transfer"</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Bonus 2020/03</t>
+  </si>
+  <si>
+    <t>Bonus 2020/02</t>
+  </si>
+  <si>
+    <t>Bonus 2020/01</t>
+  </si>
+  <si>
+    <t>Need to add this category</t>
+  </si>
+  <si>
+    <t>Adjust to match latest balance</t>
+  </si>
+  <si>
+    <t>Money in Pocket now</t>
   </si>
 </sst>
 </file>
@@ -363,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -408,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -456,6 +600,9 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -771,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C746422B-7B49-664B-A814-9E0769654701}">
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,7 +932,7 @@
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="3" bestFit="1" customWidth="1"/>
@@ -933,15 +1080,15 @@
         <v>6</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" ref="L5:L16" si="1">SUMIF(D:D,$K5,I:I)</f>
+        <f>SUMIF(D:D,$K5,I:I)</f>
         <v>50</v>
       </c>
       <c r="N5" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="3">
-        <f>L5+L8+L13</f>
-        <v>11673002</v>
+        <f>L5+L8</f>
+        <v>11628402</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -975,15 +1122,15 @@
         <v>7</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMIF(D:D,$K6,I:I)</f>
         <v>0</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="3">
-        <f>L11+L15</f>
-        <v>11153644</v>
+        <f>L11+L15+L13</f>
+        <v>11198244</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -993,6 +1140,9 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="3">
+        <v>56000</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1008,13 +1158,13 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMIF(D:D,$K7,I:I)</f>
         <v>99656173</v>
       </c>
       <c r="N7" t="s">
@@ -1057,16 +1207,20 @@
         <v>8</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMIF(D:D,$K8,I:I)</f>
         <v>11628352</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44196</v>
+        <v>44287</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <f>8259+2923</f>
+        <v>11182</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -1079,17 +1233,17 @@
         <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(G9="Out",C9*-1,C9)</f>
+        <v>11182</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMIF(D:D,$K9,I:I)</f>
         <v>16700</v>
       </c>
     </row>
@@ -1124,16 +1278,19 @@
         <v>10</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="1"/>
-        <v>178000</v>
+        <f>SUMIF(D:D,$K10,I:I)</f>
+        <v>146124</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44196</v>
+        <v>43922</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8700</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -1146,18 +1303,18 @@
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="1"/>
-        <v>10540482</v>
+        <f>SUMIF(D:D,$K11,I:I)</f>
+        <v>10554742</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1191,8 +1348,8 @@
         <v>12</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="1"/>
-        <v>3600</v>
+        <f>SUMIF(D:D,$K12,I:I)</f>
+        <v>2923</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1202,6 +1359,9 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
+      <c r="C13" s="3">
+        <v>1000</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1217,14 +1377,14 @@
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="1"/>
-        <v>44600</v>
+        <f>SUMIF(D:D,$K13,I:I)</f>
+        <v>6750</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1255,8 +1415,8 @@
         <v>14</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUMIF(D:D,$K14,I:I)</f>
+        <v>8700</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1287,8 +1447,8 @@
         <v>15</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="1"/>
-        <v>613162</v>
+        <f>SUMIF(D:D,$K15,I:I)</f>
+        <v>636752</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1322,8 +1482,8 @@
         <v>16</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUMIF(D:D,$K16,I:I)</f>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1410,7 +1570,7 @@
       </c>
       <c r="K19" s="5">
         <f>12070158-O5</f>
-        <v>397156</v>
+        <v>441756</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2856,7 +3016,7 @@
         <v>53</v>
       </c>
       <c r="I81">
-        <f t="shared" ref="I81:I82" si="2">IF(G81="Out",C81*-1,C81)</f>
+        <f t="shared" ref="I81:I82" si="1">IF(G81="Out",C81*-1,C81)</f>
         <v>-15697</v>
       </c>
     </row>
@@ -2877,7 +3037,7 @@
         <v>52</v>
       </c>
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15697</v>
       </c>
     </row>
@@ -2922,7 +3082,7 @@
         <v>52</v>
       </c>
       <c r="I84">
-        <f t="shared" ref="I84:I85" si="3">IF(G84="Out",C84*-1,C84)</f>
+        <f t="shared" ref="I84:I85" si="2">IF(G84="Out",C84*-1,C84)</f>
         <v>107</v>
       </c>
     </row>
@@ -2946,7 +3106,7 @@
         <v>53</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-107</v>
       </c>
     </row>
@@ -3093,7 +3253,7 @@
         <v>52</v>
       </c>
       <c r="I92">
-        <f t="shared" ref="I92:I123" si="4">IF(G92="Out",C92*-1,C92)</f>
+        <f t="shared" ref="I92:I123" si="3">IF(G92="Out",C92*-1,C92)</f>
         <v>218389</v>
       </c>
     </row>
@@ -3115,7 +3275,7 @@
         <v>52</v>
       </c>
       <c r="I93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
     </row>
@@ -3137,7 +3297,7 @@
         <v>53</v>
       </c>
       <c r="I94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-10000</v>
       </c>
     </row>
@@ -3158,7 +3318,7 @@
         <v>52</v>
       </c>
       <c r="I95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
     </row>
@@ -3179,7 +3339,7 @@
         <v>53</v>
       </c>
       <c r="I96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2000</v>
       </c>
     </row>
@@ -3200,7 +3360,7 @@
         <v>53</v>
       </c>
       <c r="I97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-200000</v>
       </c>
     </row>
@@ -3221,7 +3381,7 @@
         <v>52</v>
       </c>
       <c r="I98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
     </row>
@@ -3242,7 +3402,7 @@
         <v>53</v>
       </c>
       <c r="I99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-3600</v>
       </c>
     </row>
@@ -3263,7 +3423,7 @@
         <v>52</v>
       </c>
       <c r="I100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3600</v>
       </c>
     </row>
@@ -3286,7 +3446,7 @@
         <v>53</v>
       </c>
       <c r="I101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2000</v>
       </c>
     </row>
@@ -3311,7 +3471,7 @@
         <v>53</v>
       </c>
       <c r="I102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
     </row>
@@ -3336,7 +3496,7 @@
         <v>52</v>
       </c>
       <c r="I103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
     </row>
@@ -3359,7 +3519,7 @@
         <v>53</v>
       </c>
       <c r="I104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-20000</v>
       </c>
     </row>
@@ -3382,7 +3542,7 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
     </row>
@@ -3404,7 +3564,7 @@
         <v>53</v>
       </c>
       <c r="I106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5000</v>
       </c>
     </row>
@@ -3426,7 +3586,7 @@
         <v>52</v>
       </c>
       <c r="I107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>768138</v>
       </c>
     </row>
@@ -3448,7 +3608,7 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-121000</v>
       </c>
     </row>
@@ -3469,7 +3629,7 @@
         <v>53</v>
       </c>
       <c r="I109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-77000</v>
       </c>
     </row>
@@ -3490,7 +3650,7 @@
         <v>53</v>
       </c>
       <c r="I110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-11980</v>
       </c>
     </row>
@@ -3511,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="I111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-3722</v>
       </c>
     </row>
@@ -3532,7 +3692,7 @@
         <v>53</v>
       </c>
       <c r="I112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-727</v>
       </c>
     </row>
@@ -3553,7 +3713,7 @@
         <v>52</v>
       </c>
       <c r="I113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>727</v>
       </c>
     </row>
@@ -3574,7 +3734,7 @@
         <v>53</v>
       </c>
       <c r="I114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-727</v>
       </c>
     </row>
@@ -3595,7 +3755,7 @@
         <v>53</v>
       </c>
       <c r="I115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-21184</v>
       </c>
     </row>
@@ -3616,7 +3776,7 @@
         <v>53</v>
       </c>
       <c r="I116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-980</v>
       </c>
     </row>
@@ -3637,7 +3797,7 @@
         <v>53</v>
       </c>
       <c r="I117">
-        <f t="shared" ref="I117:I118" si="5">IF(G117="Out",C117*-1,C117)</f>
+        <f t="shared" ref="I117:I118" si="4">IF(G117="Out",C117*-1,C117)</f>
         <v>-6956</v>
       </c>
     </row>
@@ -3658,7 +3818,7 @@
         <v>52</v>
       </c>
       <c r="I118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6956</v>
       </c>
     </row>
@@ -3700,7 +3860,7 @@
         <v>53</v>
       </c>
       <c r="I120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-106604</v>
       </c>
     </row>
@@ -3721,7 +3881,7 @@
         <v>53</v>
       </c>
       <c r="I121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3742,7 +3902,7 @@
         <v>53</v>
       </c>
       <c r="I122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1518</v>
       </c>
     </row>
@@ -3763,7 +3923,7 @@
         <v>52</v>
       </c>
       <c r="I123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1518</v>
       </c>
     </row>
@@ -3828,7 +3988,7 @@
         <v>53</v>
       </c>
       <c r="I126">
-        <f t="shared" ref="I126:I140" si="6">IF(G126="Out",C126*-1,C126)</f>
+        <f t="shared" ref="I126:I140" si="5">IF(G126="Out",C126*-1,C126)</f>
         <v>-10000</v>
       </c>
     </row>
@@ -3849,7 +4009,7 @@
         <v>53</v>
       </c>
       <c r="I127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-24200</v>
       </c>
     </row>
@@ -3873,11 +4033,11 @@
         <v>52</v>
       </c>
       <c r="I128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>44261</v>
       </c>
@@ -3897,11 +4057,11 @@
         <v>53</v>
       </c>
       <c r="I129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-107</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>44270</v>
       </c>
@@ -3918,11 +4078,11 @@
         <v>52</v>
       </c>
       <c r="I130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>165260</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>44280</v>
       </c>
@@ -3939,11 +4099,11 @@
         <v>52</v>
       </c>
       <c r="I131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>44286</v>
       </c>
@@ -3960,11 +4120,11 @@
         <v>53</v>
       </c>
       <c r="I132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-397156</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>44286</v>
       </c>
@@ -3981,11 +4141,11 @@
         <v>52</v>
       </c>
       <c r="I133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>397156</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>44270</v>
       </c>
@@ -4004,11 +4164,11 @@
         <v>53</v>
       </c>
       <c r="I134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-2000</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>44262</v>
       </c>
@@ -4029,11 +4189,11 @@
         <v>53</v>
       </c>
       <c r="I135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-30000</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>44262</v>
       </c>
@@ -4054,11 +4214,11 @@
         <v>52</v>
       </c>
       <c r="I136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>44285</v>
       </c>
@@ -4079,11 +4239,11 @@
         <v>53</v>
       </c>
       <c r="I137">
-        <f t="shared" ref="I137:I138" si="7">IF(G137="Out",C137*-1,C137)</f>
+        <f t="shared" ref="I137:I138" si="6">IF(G137="Out",C137*-1,C137)</f>
         <v>-74000</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>44285</v>
       </c>
@@ -4104,11 +4264,11 @@
         <v>52</v>
       </c>
       <c r="I138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>74000</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>44286</v>
       </c>
@@ -4127,11 +4287,11 @@
         <v>53</v>
       </c>
       <c r="I139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-20000</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>44286</v>
       </c>
@@ -4150,11 +4310,11 @@
         <v>52</v>
       </c>
       <c r="I140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>44287</v>
       </c>
@@ -4171,11 +4331,11 @@
         <v>52</v>
       </c>
       <c r="I141">
-        <f t="shared" ref="I141" si="8">IF(G141="Out",C141*-1,C141)</f>
+        <f t="shared" ref="I141:I204" si="7">IF(G141="Out",C141*-1,C141)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>44287</v>
       </c>
@@ -4192,12 +4352,1541 @@
         <v>52</v>
       </c>
       <c r="I142">
-        <f t="shared" ref="I142" si="9">IF(G142="Out",C142*-1,C142)</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
     </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2771</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>53</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="7"/>
+        <v>-2771</v>
+      </c>
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="3">
+        <v>2190</v>
+      </c>
+      <c r="D144" t="s">
+        <v>93</v>
+      </c>
+      <c r="G144" t="s">
+        <v>53</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="7"/>
+        <v>-2190</v>
+      </c>
+      <c r="K144" s="3"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="35">
+        <v>44206</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C145" s="37">
+        <v>4761</v>
+      </c>
+      <c r="D145" t="s">
+        <v>93</v>
+      </c>
+      <c r="G145" t="s">
+        <v>53</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="7"/>
+        <v>-4761</v>
+      </c>
+      <c r="K145" s="37"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="35">
+        <v>44212</v>
+      </c>
+      <c r="B146" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" s="37">
+        <v>6401</v>
+      </c>
+      <c r="D146" t="s">
+        <v>93</v>
+      </c>
+      <c r="G146" t="s">
+        <v>53</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="7"/>
+        <v>-6401</v>
+      </c>
+      <c r="K146" s="37"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="35">
+        <v>44215</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147" s="37">
+        <v>2728</v>
+      </c>
+      <c r="D147" t="s">
+        <v>93</v>
+      </c>
+      <c r="G147" t="s">
+        <v>53</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="7"/>
+        <v>-2728</v>
+      </c>
+      <c r="K147" s="37"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>44222</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C148" s="3">
+        <v>4615</v>
+      </c>
+      <c r="D148" t="s">
+        <v>93</v>
+      </c>
+      <c r="G148" t="s">
+        <v>53</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="7"/>
+        <v>-4615</v>
+      </c>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>44223</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" s="3">
+        <v>3875</v>
+      </c>
+      <c r="D149" t="s">
+        <v>93</v>
+      </c>
+      <c r="G149" t="s">
+        <v>53</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="7"/>
+        <v>-3875</v>
+      </c>
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C150" s="3">
+        <v>2276</v>
+      </c>
+      <c r="D150" t="s">
+        <v>93</v>
+      </c>
+      <c r="G150" t="s">
+        <v>53</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="7"/>
+        <v>-2276</v>
+      </c>
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C151" s="3">
+        <v>429</v>
+      </c>
+      <c r="D151" t="s">
+        <v>84</v>
+      </c>
+      <c r="G151" t="s">
+        <v>53</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="7"/>
+        <v>-429</v>
+      </c>
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C152" s="17">
+        <v>800</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G152" t="s">
+        <v>53</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="7"/>
+        <v>-800</v>
+      </c>
+      <c r="K152" s="17"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C153" s="3">
+        <v>5753</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>53</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="7"/>
+        <v>-5753</v>
+      </c>
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C154" s="3">
+        <v>2379</v>
+      </c>
+      <c r="D154" t="s">
+        <v>93</v>
+      </c>
+      <c r="G154" t="s">
+        <v>53</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="7"/>
+        <v>-2379</v>
+      </c>
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C155" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D155" t="s">
+        <v>87</v>
+      </c>
+      <c r="G155" t="s">
+        <v>53</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="7"/>
+        <v>-10000</v>
+      </c>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C156" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="G156" t="s">
+        <v>52</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C157" s="3">
+        <v>2409</v>
+      </c>
+      <c r="D157" t="s">
+        <v>93</v>
+      </c>
+      <c r="G157" t="s">
+        <v>53</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="7"/>
+        <v>-2409</v>
+      </c>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>53</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="7"/>
+        <v>-1000</v>
+      </c>
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D159" t="s">
+        <v>87</v>
+      </c>
+      <c r="G159" t="s">
+        <v>53</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="7"/>
+        <v>-1000</v>
+      </c>
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B160" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" t="s">
+        <v>52</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B161" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C161" s="3">
+        <v>590</v>
+      </c>
+      <c r="D161" t="s">
+        <v>87</v>
+      </c>
+      <c r="G161" t="s">
+        <v>53</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="7"/>
+        <v>-590</v>
+      </c>
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B162" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C162" s="3">
+        <v>590</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="G162" t="s">
+        <v>52</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="7"/>
+        <v>590</v>
+      </c>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B163" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C163" s="3">
+        <v>660</v>
+      </c>
+      <c r="D163" t="s">
+        <v>93</v>
+      </c>
+      <c r="G163" t="s">
+        <v>53</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="7"/>
+        <v>-660</v>
+      </c>
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C164" s="3">
+        <v>3268</v>
+      </c>
+      <c r="D164" t="s">
+        <v>93</v>
+      </c>
+      <c r="G164" t="s">
+        <v>53</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="7"/>
+        <v>-3268</v>
+      </c>
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D165" t="s">
+        <v>93</v>
+      </c>
+      <c r="G165" t="s">
+        <v>53</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="7"/>
+        <v>-1200</v>
+      </c>
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C166" s="3">
+        <v>2210</v>
+      </c>
+      <c r="D166" t="s">
+        <v>93</v>
+      </c>
+      <c r="G166" t="s">
+        <v>53</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="7"/>
+        <v>-2210</v>
+      </c>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D167" t="s">
+        <v>75</v>
+      </c>
+      <c r="G167" t="s">
+        <v>52</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="7"/>
+        <v>1500</v>
+      </c>
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C168" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D168" t="s">
+        <v>75</v>
+      </c>
+      <c r="G168" t="s">
+        <v>53</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="7"/>
+        <v>-2400</v>
+      </c>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B169" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C169" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D169" t="s">
+        <v>87</v>
+      </c>
+      <c r="G169" t="s">
+        <v>53</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="7"/>
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" t="s">
+        <v>52</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="7"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>44257</v>
+      </c>
+      <c r="B171" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" s="3">
+        <v>6955</v>
+      </c>
+      <c r="D171" t="s">
+        <v>93</v>
+      </c>
+      <c r="G171" t="s">
+        <v>53</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="7"/>
+        <v>-6955</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>44261</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D172" t="s">
+        <v>87</v>
+      </c>
+      <c r="G172" t="s">
+        <v>53</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="7"/>
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>44261</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" t="s">
+        <v>52</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="7"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>44261</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D174" t="s">
+        <v>93</v>
+      </c>
+      <c r="G174" t="s">
+        <v>53</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="7"/>
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>44261</v>
+      </c>
+      <c r="B175" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175" s="3">
+        <v>9550</v>
+      </c>
+      <c r="D175" t="s">
+        <v>93</v>
+      </c>
+      <c r="G175" t="s">
+        <v>53</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="7"/>
+        <v>-9550</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>44264</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C176" s="3">
+        <v>3522</v>
+      </c>
+      <c r="D176" t="s">
+        <v>93</v>
+      </c>
+      <c r="G176" t="s">
+        <v>53</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="7"/>
+        <v>-3522</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B177" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C177" s="3">
+        <v>2303</v>
+      </c>
+      <c r="D177" t="s">
+        <v>93</v>
+      </c>
+      <c r="G177" t="s">
+        <v>53</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="7"/>
+        <v>-2303</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B178" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C178" s="3">
+        <v>2410</v>
+      </c>
+      <c r="D178" t="s">
+        <v>75</v>
+      </c>
+      <c r="G178" t="s">
+        <v>52</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="7"/>
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>44266</v>
+      </c>
+      <c r="B179" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C179" s="3">
+        <v>2925</v>
+      </c>
+      <c r="D179" t="s">
+        <v>93</v>
+      </c>
+      <c r="G179" t="s">
+        <v>53</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="7"/>
+        <v>-2925</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B180" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C180" s="3">
+        <v>2530</v>
+      </c>
+      <c r="D180" t="s">
+        <v>93</v>
+      </c>
+      <c r="G180" t="s">
+        <v>53</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="7"/>
+        <v>-2530</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B181" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1480</v>
+      </c>
+      <c r="D181" t="s">
+        <v>75</v>
+      </c>
+      <c r="G181" t="s">
+        <v>53</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="7"/>
+        <v>-1480</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B182" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C182" s="3">
+        <v>3098</v>
+      </c>
+      <c r="D182" t="s">
+        <v>93</v>
+      </c>
+      <c r="G182" t="s">
+        <v>53</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="7"/>
+        <v>-3098</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>44275</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C183" s="3">
+        <v>4280</v>
+      </c>
+      <c r="D183" t="s">
+        <v>93</v>
+      </c>
+      <c r="G183" t="s">
+        <v>53</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="7"/>
+        <v>-4280</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C184" s="3">
+        <v>240</v>
+      </c>
+      <c r="D184" t="s">
+        <v>87</v>
+      </c>
+      <c r="G184" t="s">
+        <v>52</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C185" s="3">
+        <v>240</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G185" t="s">
+        <v>53</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="7"/>
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B186" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C186" s="3">
+        <v>319</v>
+      </c>
+      <c r="D186" t="s">
+        <v>93</v>
+      </c>
+      <c r="G186" t="s">
+        <v>53</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="7"/>
+        <v>-319</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B187" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C187" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D187" t="s">
+        <v>87</v>
+      </c>
+      <c r="G187" t="s">
+        <v>53</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="7"/>
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B188" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C188" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="G188" t="s">
+        <v>52</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B189" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C189" s="3">
+        <v>2798</v>
+      </c>
+      <c r="D189" t="s">
+        <v>93</v>
+      </c>
+      <c r="G189" t="s">
+        <v>53</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="7"/>
+        <v>-2798</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B190" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C190" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D190" t="s">
+        <v>87</v>
+      </c>
+      <c r="G190" t="s">
+        <v>53</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="7"/>
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B191" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C191" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="G191" t="s">
+        <v>52</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B192" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C192" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192" t="s">
+        <v>52</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B193" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C193" s="3">
+        <v>2602</v>
+      </c>
+      <c r="D193" t="s">
+        <v>75</v>
+      </c>
+      <c r="G193" t="s">
+        <v>53</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="7"/>
+        <v>-2602</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B194" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C194" s="3">
+        <v>158</v>
+      </c>
+      <c r="D194" t="s">
+        <v>75</v>
+      </c>
+      <c r="G194" t="s">
+        <v>53</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="7"/>
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B195" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C195" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D195" t="s">
+        <v>75</v>
+      </c>
+      <c r="G195" t="s">
+        <v>53</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="7"/>
+        <v>-2048</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B196" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1650</v>
+      </c>
+      <c r="D196" t="s">
+        <v>75</v>
+      </c>
+      <c r="E196" t="s">
+        <v>112</v>
+      </c>
+      <c r="G196" t="s">
+        <v>53</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="7"/>
+        <v>-1650</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B197" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C197" s="3">
+        <v>12793</v>
+      </c>
+      <c r="D197" t="s">
+        <v>75</v>
+      </c>
+      <c r="G197" t="s">
+        <v>53</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="7"/>
+        <v>-12793</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B198" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C198" s="3">
+        <v>11533</v>
+      </c>
+      <c r="D198" t="s">
+        <v>75</v>
+      </c>
+      <c r="G198" t="s">
+        <v>53</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="7"/>
+        <v>-11533</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B199" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C199" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D199" t="s">
+        <v>75</v>
+      </c>
+      <c r="E199" t="s">
+        <v>115</v>
+      </c>
+      <c r="G199" t="s">
+        <v>53</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="7"/>
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B200" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1270</v>
+      </c>
+      <c r="D200" t="s">
+        <v>75</v>
+      </c>
+      <c r="E200" t="s">
+        <v>116</v>
+      </c>
+      <c r="G200" t="s">
+        <v>53</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="7"/>
+        <v>-1270</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B201" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C201" s="3">
+        <v>900</v>
+      </c>
+      <c r="D201" t="s">
+        <v>75</v>
+      </c>
+      <c r="E201" t="s">
+        <v>115</v>
+      </c>
+      <c r="G201" t="s">
+        <v>53</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="7"/>
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B202" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C202" s="3">
+        <v>900</v>
+      </c>
+      <c r="D202" t="s">
+        <v>75</v>
+      </c>
+      <c r="E202" t="s">
+        <v>115</v>
+      </c>
+      <c r="G202" t="s">
+        <v>53</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="7"/>
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B203" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C203" s="3">
+        <v>6408</v>
+      </c>
+      <c r="D203" t="s">
+        <v>75</v>
+      </c>
+      <c r="E203" t="s">
+        <v>54</v>
+      </c>
+      <c r="G203" t="s">
+        <v>52</v>
+      </c>
+      <c r="H203" t="s">
+        <v>118</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="7"/>
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B204" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C204" s="3">
+        <v>200</v>
+      </c>
+      <c r="D204" t="s">
+        <v>75</v>
+      </c>
+      <c r="E204" t="s">
+        <v>46</v>
+      </c>
+      <c r="G204" t="s">
+        <v>52</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B205" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C205" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D205" t="s">
+        <v>75</v>
+      </c>
+      <c r="E205" t="s">
+        <v>46</v>
+      </c>
+      <c r="G205" t="s">
+        <v>52</v>
+      </c>
+      <c r="I205">
+        <f t="shared" ref="I205:I211" si="8">IF(G205="Out",C205*-1,C205)</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>44214</v>
+      </c>
+      <c r="B206" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C206" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D206" t="s">
+        <v>75</v>
+      </c>
+      <c r="E206" t="s">
+        <v>46</v>
+      </c>
+      <c r="G206" t="s">
+        <v>52</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B207" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C207" s="3">
+        <v>5600</v>
+      </c>
+      <c r="D207" t="s">
+        <v>75</v>
+      </c>
+      <c r="E207" t="s">
+        <v>46</v>
+      </c>
+      <c r="G207" t="s">
+        <v>52</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="8"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>44229</v>
+      </c>
+      <c r="B208" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C208" s="3">
+        <v>3060</v>
+      </c>
+      <c r="D208" t="s">
+        <v>75</v>
+      </c>
+      <c r="E208" t="s">
+        <v>46</v>
+      </c>
+      <c r="G208" t="s">
+        <v>52</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="8"/>
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B209" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C209" s="3">
+        <v>3123</v>
+      </c>
+      <c r="D209" t="s">
+        <v>75</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G209" t="s">
+        <v>52</v>
+      </c>
+      <c r="H209" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="8"/>
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B210" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C210" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D210" t="s">
+        <v>75</v>
+      </c>
+      <c r="E210" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G210" t="s">
+        <v>52</v>
+      </c>
+      <c r="H210" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="8"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B211" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C211" s="3">
+        <v>961</v>
+      </c>
+      <c r="D211" t="s">
+        <v>75</v>
+      </c>
+      <c r="E211" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G211" t="s">
+        <v>52</v>
+      </c>
+      <c r="H211" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="8"/>
+        <v>961</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P105" xr:uid="{528EF4BF-5565-314F-90E0-92999827C614}"/>
+  <autoFilter ref="A1:P211" xr:uid="{528EF4BF-5565-314F-90E0-92999827C614}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/Manual_Balance.xlsx
+++ b/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/Manual_Balance.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhphan/PycharmProjects/HomeAccounting/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3C7490-B24C-2E40-A752-B5EB7E6153D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E987A-87DE-0446-8946-F90063CB6FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{211A79C5-B985-E94E-B0C1-2BF2BF8B9373}"/>
+    <workbookView xWindow="21160" yWindow="3220" windowWidth="28040" windowHeight="17440" xr2:uid="{211A79C5-B985-E94E-B0C1-2BF2BF8B9373}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$219</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>HomeYBMeoCard</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>HomeVCB</t>
@@ -77,10 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HomeYBVitCard</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Paypay</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,65 +109,65 @@
   </si>
   <si>
     <t>Mangoes</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Kindergarten Puppy</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Fee Card</t>
   </si>
   <si>
     <t>Books</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Interest</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Phone Bill 2021</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Books Shipping</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Book Shipping (Meo paid)</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>WFH Allowance 2021</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Bonus Bukkun + Fee (Meo paid)</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Bonus Meo</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>To Duck's bank</t>
   </si>
   <si>
     <t>Support Puppy</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Vit to B4</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Bonus Meo OT</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Charge Paypay</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Expense</t>
@@ -251,12 +243,6 @@
     <t>Rakuten (Meo)</t>
   </si>
   <si>
-    <t>Rakuten (Meo + Home)</t>
-  </si>
-  <si>
-    <t>Rakuten (Cash back Home)</t>
-  </si>
-  <si>
     <t>Yahoo</t>
   </si>
   <si>
@@ -269,36 +255,21 @@
     <t>Withdraw</t>
   </si>
   <si>
-    <t>Yahoo (Cash back home)</t>
-  </si>
-  <si>
     <t>VitYB</t>
   </si>
   <si>
     <t>Vit 2021.01</t>
   </si>
   <si>
-    <t>Yahoo (Meo + Home)</t>
-  </si>
-  <si>
     <t>Yahoo (Meo)</t>
   </si>
   <si>
-    <t>Yahoo (Cash back Home)</t>
-  </si>
-  <si>
-    <t>Amazon (Meo + Home)</t>
-  </si>
-  <si>
     <t>Paypay</t>
   </si>
   <si>
     <t>Amazon (Meo)</t>
   </si>
   <si>
-    <t>Amazon (Cash back Home)</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -441,6 +412,73 @@
   </si>
   <si>
     <t>Money in Pocket now</t>
+  </si>
+  <si>
+    <t>Vit withdraw</t>
+  </si>
+  <si>
+    <t>Japanese Lesson</t>
+  </si>
+  <si>
+    <t>Unknown Loss</t>
+  </si>
+  <si>
+    <t>HomeYB_Main</t>
+  </si>
+  <si>
+    <t>HomeYB_Saving</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adjustment Up</t>
+  </si>
+  <si>
+    <t>Insurances</t>
+  </si>
+  <si>
+    <t>Credit Payment</t>
+  </si>
+  <si>
+    <t>Adjustment Down</t>
+  </si>
+  <si>
+    <t>Transfer In</t>
+  </si>
+  <si>
+    <t>Transfer Out</t>
+  </si>
+  <si>
+    <t>Rakuten (Home)</t>
+  </si>
+  <si>
+    <t>Yahoo (Home)</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Allowance</t>
+  </si>
+  <si>
+    <t>Other Expense</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Household Supplies</t>
+  </si>
+  <si>
+    <t>Medical</t>
   </si>
 </sst>
 </file>
@@ -452,7 +490,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -477,13 +515,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -501,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,12 +559,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -552,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -562,47 +587,45 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -918,16 +941,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C746422B-7B49-664B-A814-9E0769654701}">
-  <dimension ref="A1:O211"/>
+  <dimension ref="A1:O219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -942,7 +965,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -955,10 +978,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -968,24 +991,24 @@
       <c r="A2" s="2">
         <v>44196</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="B2" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <f>IF(G2="Out",C2*-1,C2)</f>
@@ -996,24 +1019,24 @@
       <c r="A3" s="2">
         <v>44196</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I91" si="0">IF(G3="Out",C3*-1,C3)</f>
@@ -1024,24 +1047,26 @@
       <c r="A4" s="2">
         <v>44196</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>141019664</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -1052,39 +1077,41 @@
       <c r="A5" s="2">
         <v>44196</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
+      <c r="B5" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <f>11471787-C10</f>
         <v>11440148</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
         <v>11440148</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="L5" s="3">
         <f>SUMIF(D:D,$K5,I:I)</f>
         <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O5" s="3">
         <f>L5+L8</f>
@@ -1095,38 +1122,40 @@
       <c r="A6" s="2">
         <v>44196</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
+      <c r="B6" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>16700</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
         <v>16700</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" s="3">
         <f>SUMIF(D:D,$K6,I:I)</f>
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O6" s="3">
         <f>L11+L15+L13</f>
@@ -1137,40 +1166,42 @@
       <c r="A7" s="2">
         <v>44196</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
+      <c r="B7" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>56000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
         <v>56000</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7" s="3">
         <f>SUMIF(D:D,$K7,I:I)</f>
         <v>99656173</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="16">
+        <v>54</v>
+      </c>
+      <c r="O7" s="27">
         <f>L6+L7</f>
         <v>99656173</v>
       </c>
@@ -1179,32 +1210,34 @@
       <c r="A8" s="2">
         <v>44196</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
+      <c r="B8" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <f>10664860-C12</f>
         <v>9964860</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
         <v>9964860</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="3">
         <f>SUMIF(D:D,$K8,I:I)</f>
@@ -1215,32 +1248,34 @@
       <c r="A9" s="2">
         <v>44287</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="B9" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <f>8259+2923</f>
         <v>11182</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I9">
         <f>IF(G9="Out",C9*-1,C9)</f>
         <v>11182</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="3">
         <f>SUMIF(D:D,$K9,I:I)</f>
@@ -1251,101 +1286,107 @@
       <c r="A10" s="2">
         <v>44196</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
+      <c r="B10" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>31639</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
         <v>31639</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="3">
         <f>SUMIF(D:D,$K10,I:I)</f>
-        <v>146124</v>
+        <v>43282</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43922</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
+      <c r="B11" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>8700</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="L11" s="3">
         <f>SUMIF(D:D,$K11,I:I)</f>
-        <v>10554742</v>
+        <v>10564742</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44196</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
+      <c r="B12" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>700000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L12" s="3">
         <f>SUMIF(D:D,$K12,I:I)</f>
@@ -1356,33 +1397,35 @@
       <c r="A13" s="2">
         <v>44196</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
+      <c r="B13" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>1000</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="16">
+        <v>11</v>
+      </c>
+      <c r="L13" s="27">
         <f>SUMIF(D:D,$K13,I:I)</f>
         <v>6750</v>
       </c>
@@ -1391,28 +1434,30 @@
       <c r="A14" s="2">
         <v>44203</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
+      <c r="B14" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="3">
         <v>6000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>-6000</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L14" s="3">
         <f>SUMIF(D:D,$K14,I:I)</f>
@@ -1423,7 +1468,7 @@
       <c r="A15" s="2">
         <v>44211</v>
       </c>
-      <c r="B15" s="19" t="str">
+      <c r="B15" s="29" t="str">
         <f>CONCATENATE("Insurance (Meo) 2021.",TEXT(MONTH(A15),"00"))</f>
         <v>Insurance (Meo) 2021.01</v>
       </c>
@@ -1431,31 +1476,34 @@
         <v>5000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" s="3">
         <f>SUMIF(D:D,$K15,I:I)</f>
-        <v>636752</v>
+        <v>626752</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44221</v>
       </c>
-      <c r="B16" s="20" t="str">
+      <c r="B16" s="13" t="str">
         <f>CONCATENATE("Salary JP 2021.",TEXT(MONTH(A16),"00"))</f>
         <v>Salary JP 2021.01</v>
       </c>
@@ -1463,34 +1511,34 @@
         <v>606705</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>120</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>606705</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L16" s="3">
         <f>SUMIF(D:D,$K16,I:I)</f>
-        <v>571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44221</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="13" t="str">
         <f>CONCATENATE("House rental 2021.",TEXT(MONTH(A17),"00"))</f>
         <v>House rental 2021.01</v>
       </c>
@@ -1498,1438 +1546,1585 @@
         <v>121000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>-121000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44222</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>23</v>
+      <c r="B18" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="3">
         <v>65000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>-65000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44222</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>42</v>
+      <c r="B19" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="3">
         <v>17742</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>120</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>-17742</v>
       </c>
-      <c r="K19" s="5">
-        <f>12070158-O5</f>
-        <v>441756</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="32">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
         <v>44223</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="27">
-        <v>116484</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>6</v>
+      <c r="B20" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="17">
+        <v>103812</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>-116484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="32">
+        <v>-103812</v>
+      </c>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
         <v>44223</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="27">
+      <c r="B21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="17">
         <v>12672</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>15</v>
+      <c r="D21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>-12672</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="32">
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
         <v>44223</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="B22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="17">
         <v>12672</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>11</v>
+      <c r="D22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22">
         <f t="shared" si="0"/>
+        <v>-12672</v>
+      </c>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>44223</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="17">
         <v>12672</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="32">
+      <c r="D23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>12672</v>
+      </c>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
         <v>44223</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="27">
-        <v>81295</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>-81295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="32">
+      <c r="B24" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="17">
+        <v>52678</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>-52678</v>
+      </c>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
         <v>44223</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="27">
+      <c r="B25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="17">
         <v>9592</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D25" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>-9592</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <v>44223</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="17">
+        <v>19025</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>-9592</v>
-      </c>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="32">
+      <c r="E26" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>-19025</v>
+      </c>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
         <v>44223</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="27">
-        <v>9592</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>9592</v>
-      </c>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+      <c r="B27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="17">
+        <v>19025</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>-19025</v>
+      </c>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
         <v>44223</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="27">
+      <c r="B28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="17">
         <v>19025</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>-19025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="32">
-        <v>44223</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="27">
+      <c r="D28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
         <v>19025</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>19025</v>
-      </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="K28" s="5"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>44205</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B29" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4">
         <f>22000+2200</f>
         <v>24200</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28">
+      <c r="D29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>-24200</v>
       </c>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>44205</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="3">
-        <v>107</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
       <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44205</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>24</v>
+      <c r="B30" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C30" s="3">
         <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="3">
+        <v>107</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
         <v>-107</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>44204</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3340094</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>-3340094</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44204</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>25</v>
+      <c r="B32" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="C32" s="3">
-        <v>14832</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="15" t="s">
-        <v>52</v>
+        <v>3340094</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>14832</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3340094</v>
+      </c>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44204</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>25</v>
+      <c r="B33" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="C33" s="3">
         <v>14832</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" t="s">
-        <v>53</v>
+      <c r="G33" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
+        <v>14832</v>
+      </c>
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="3">
+        <v>14832</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
         <v>-14832</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>44211</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B35" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="4">
         <v>203836</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" t="s">
         <v>44</v>
       </c>
-      <c r="E34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34">
+      <c r="G35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="0"/>
         <v>203836</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>44218</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="24">
+      <c r="B36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="14">
         <v>127397</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D36" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35">
+      <c r="G36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="0"/>
         <v>127397</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>44221</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="24">
+      <c r="B37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="14">
         <v>294</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D37" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36">
+      <c r="G37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B37" s="21" t="str">
-        <f>CONCATENATE("Meo 2021.",TEXT(MONTH(A37),"00"))</f>
-        <v>Meo 2021.01</v>
-      </c>
-      <c r="C37" s="27">
-        <v>10000</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44227</v>
       </c>
-      <c r="B38" s="21" t="str">
+      <c r="B38" s="13" t="str">
         <f>CONCATENATE("Meo 2021.",TEXT(MONTH(A38),"00"))</f>
         <v>Meo 2021.01</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="17">
         <v>10000</v>
       </c>
-      <c r="D38" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>53</v>
+      <c r="D38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44227</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="27">
-        <v>13680000</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="G39" s="15" t="s">
-        <v>53</v>
+      <c r="B39" s="13" t="str">
+        <f>CONCATENATE("Meo 2021.",TEXT(MONTH(A39),"00"))</f>
+        <v>Meo 2021.01</v>
+      </c>
+      <c r="C39" s="17">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>-13680000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-10000</v>
+      </c>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44227</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="27">
-        <v>60749</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="26"/>
-      <c r="G40" s="15" t="s">
-        <v>52</v>
+      <c r="B40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="17">
+        <v>13680000</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>60749</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-13680000</v>
+      </c>
+      <c r="M40" s="16"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44227</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="27">
+      <c r="B41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="17">
         <v>60749</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="G41" t="s">
-        <v>53</v>
+      <c r="D41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>-60749</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>60749</v>
+      </c>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44227</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="27">
-        <v>2600000</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="G42" s="15" t="s">
-        <v>53</v>
+      <c r="B42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="17">
+        <v>60749</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>-2600000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-60749</v>
+      </c>
+      <c r="M42" s="16"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44227</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="27">
-        <v>11546</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="G43" s="15" t="s">
-        <v>52</v>
+      <c r="B43" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2600000</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>11546</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2600000</v>
+      </c>
+      <c r="M43" s="16"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44227</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="27">
+      <c r="B44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="17">
         <v>11546</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="26"/>
-      <c r="G44" t="s">
-        <v>53</v>
+      <c r="D44" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>-11546</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11546</v>
+      </c>
+      <c r="M44" s="16"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44227</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="27">
-        <v>2000000</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>53</v>
+      <c r="B45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="17">
+        <v>11546</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" t="s">
+        <v>51</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>-2000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-11546</v>
+      </c>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44227</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="27">
-        <v>10000</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="26"/>
+      <c r="B46" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="F46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2000000</v>
+      </c>
+      <c r="M46" s="16"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44227</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="27">
+      <c r="B47" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="17">
         <v>10000</v>
       </c>
-      <c r="D47" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="26"/>
+      <c r="D47" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="M47" s="16"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44227</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="27">
+      <c r="B48" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="17">
         <v>10000</v>
       </c>
-      <c r="D48" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="26"/>
-      <c r="G48" s="15" t="s">
-        <v>52</v>
+      <c r="D48" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>51</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44227</v>
       </c>
-      <c r="B49" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="27">
+      <c r="B49" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="17">
         <v>10000</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="G49" t="s">
-        <v>53</v>
+      <c r="D49" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>-10000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44227</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="27">
-        <v>386506</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>53</v>
+      <c r="B50" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="17">
+        <v>10000</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" t="s">
+        <v>51</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>-386506</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44227</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="27">
-        <v>1932</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="26"/>
+      <c r="B51" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="17">
+        <v>386506</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>1932</v>
+        <v>-386506</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44227</v>
       </c>
-      <c r="B52" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="27">
+      <c r="B52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="17">
         <v>1932</v>
       </c>
-      <c r="D52" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="26"/>
+      <c r="D52" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>-1932</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44227</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="27">
-        <v>1233</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>52</v>
+      <c r="B53" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="17">
+        <v>1932</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>51</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>1233</v>
+        <v>-1932</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44227</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="27">
-        <v>56</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="26"/>
-      <c r="G54" s="15" t="s">
-        <v>52</v>
+      <c r="B54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="17">
+        <v>1233</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44227</v>
       </c>
-      <c r="B55" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="27">
+      <c r="B55" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="17">
         <v>56</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" t="s">
-        <v>53</v>
+      <c r="D55" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>-56</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44227</v>
       </c>
-      <c r="B56" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="27">
-        <v>20000</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>45</v>
-      </c>
+      <c r="B56" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="17">
+        <v>56</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="16"/>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44227</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="27">
+      <c r="B57" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="17">
         <v>20000</v>
       </c>
-      <c r="D57" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>53</v>
+      <c r="D57" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s">
+        <v>50</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>-20000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44227</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="3">
-        <v>82486</v>
+      <c r="B58" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="17">
+        <v>20000</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>54</v>
+        <v>120</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>82486</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44227</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>33</v>
+      <c r="B59" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="C59" s="3">
         <v>82486</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" t="s">
-        <v>53</v>
+        <v>121</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>-82486</v>
+        <v>82486</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>65</v>
+        <v>44227</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="C60" s="3">
-        <v>2000</v>
+        <v>82486</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
+        <v>120</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="G60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>-2000</v>
+        <v>-82486</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>44222</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>66</v>
+        <v>44211</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="C61" s="3">
-        <v>6900</v>
+        <v>2000</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
+        <v>121</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="16"/>
       <c r="G61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>-6900</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>44226</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>67</v>
+        <v>44222</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="C62" s="3">
-        <v>50000</v>
+        <v>6900</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26" t="s">
-        <v>55</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="16"/>
       <c r="G62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>-50000</v>
+        <v>-6900</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44226</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="17">
+      <c r="B63" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="3">
         <v>50000</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>52</v>
+      <c r="D63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" t="s">
+        <v>51</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" t="s">
-        <v>53</v>
+        <v>44226</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="11">
+        <v>50000</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>-20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44227</v>
       </c>
-      <c r="B65" s="30" t="s">
-        <v>70</v>
+      <c r="B65" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="C65" s="3">
         <v>20000</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" t="s">
+        <v>51</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B66" s="7" t="str">
-        <f>CONCATENATE("Insurance (Meo) 2021.",TEXT(MONTH(A66),"00"))</f>
-        <v>Insurance (Meo) 2021.02</v>
+        <v>44227</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="C66" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" t="s">
-        <v>53</v>
+        <v>20000</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>-5000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>44252</v>
-      </c>
-      <c r="B67" s="8" t="str">
-        <f>CONCATENATE("Salary JP 2021.",TEXT(MONTH(A67),"00"))</f>
-        <v>Salary JP 2021.02</v>
+        <v>44242</v>
+      </c>
+      <c r="B67" s="33" t="str">
+        <f>CONCATENATE("Insurance (Meo) 2021.",TEXT(MONTH(A67),"00"))</f>
+        <v>Insurance (Meo) 2021.02</v>
       </c>
       <c r="C67" s="3">
-        <v>683765</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>52</v>
+        <v>5000</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" t="s">
+        <v>51</v>
       </c>
       <c r="I67">
         <f t="shared" si="0"/>
-        <v>683765</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44252</v>
       </c>
-      <c r="B68" s="9" t="str">
-        <f>CONCATENATE("House rental 2021.",TEXT(MONTH(A68),"00"))</f>
+      <c r="B68" s="22" t="str">
+        <f>CONCATENATE("Salary JP 2021.",TEXT(MONTH(A68),"00"))</f>
+        <v>Salary JP 2021.02</v>
+      </c>
+      <c r="C68" s="3">
+        <v>683765</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="0"/>
+        <v>683765</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B69" s="22" t="str">
+        <f>CONCATENATE("House rental 2021.",TEXT(MONTH(A69),"00"))</f>
         <v>House rental 2021.02</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C69" s="3">
         <v>121000</v>
       </c>
-      <c r="D68" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" t="s">
-        <v>53</v>
-      </c>
-      <c r="I68">
+      <c r="D69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="0"/>
         <v>-121000</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="32">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="21">
         <v>44253</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="27">
+      <c r="B70" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="17">
         <v>65000</v>
       </c>
-      <c r="D69" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I69">
+      <c r="D70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="0"/>
         <v>-65000</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="32">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="21">
         <v>44253</v>
       </c>
-      <c r="B70" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="27">
-        <v>18060</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" t="s">
-        <v>53</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="0"/>
-        <v>-18060</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="32">
+      <c r="B71" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="17">
+        <v>16161</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>-16161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="21">
         <v>44253</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="27">
+      <c r="B72" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="17">
         <v>1899</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D72" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="0"/>
+        <v>-1899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="21">
+        <v>44256</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="17">
+        <v>94954</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G73" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="0"/>
+        <v>-94954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="21">
+        <v>44256</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="17">
+        <v>13090</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="0"/>
+        <v>-13090</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="21">
+        <v>44256</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="17">
+        <v>1419</v>
+      </c>
+      <c r="D75" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="0"/>
-        <v>-1899</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="32">
-        <v>44253</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="27">
-        <v>1899</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" t="s">
-        <v>52</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="0"/>
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="32">
+      <c r="E75" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="0"/>
+        <v>-1419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="21">
         <v>44256</v>
       </c>
-      <c r="B73" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="27">
-        <v>109463</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" t="s">
-        <v>53</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="0"/>
-        <v>-109463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="32">
+      <c r="B76" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="17">
+        <v>1419</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="0"/>
+        <v>-1419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="21">
         <v>44256</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="27">
-        <v>13090</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="0"/>
-        <v>-13090</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="32">
-        <v>44256</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="27">
-        <v>13090</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" t="s">
-        <v>52</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="0"/>
-        <v>13090</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="32">
-        <v>44256</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="27">
+      <c r="B77" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="17">
         <v>1419</v>
       </c>
-      <c r="D76" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>53</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="0"/>
-        <v>-1419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="32">
-        <v>44256</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="27">
-        <v>1419</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>11</v>
+      <c r="D77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I77">
         <f t="shared" si="0"/>
@@ -2940,38 +3135,44 @@
       <c r="A78" s="2">
         <v>44256</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>62</v>
+      <c r="B78" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="C78" s="3">
-        <v>146486</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>6</v>
+        <v>128909</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I78">
         <f t="shared" si="0"/>
-        <v>-146486</v>
+        <v>-128909</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44256</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>61</v>
+      <c r="B79" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="C79" s="3">
         <v>1880</v>
       </c>
-      <c r="D79" s="28" t="s">
-        <v>13</v>
+      <c r="D79" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I79">
         <f t="shared" si="0"/>
@@ -2982,41 +3183,47 @@
       <c r="A80" s="2">
         <v>44256</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>63</v>
+      <c r="B80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C80" s="3">
-        <v>1880</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>6</v>
+        <v>15697</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I80">
-        <f t="shared" si="0"/>
-        <v>1880</v>
+        <f t="shared" ref="I80:I82" si="1">IF(G80="Out",C80*-1,C80)</f>
+        <v>-15697</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44256</v>
       </c>
-      <c r="B81" s="23" t="s">
-        <v>59</v>
+      <c r="B81" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C81" s="3">
         <v>15697</v>
       </c>
-      <c r="D81" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" t="s">
-        <v>53</v>
+      <c r="D81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I81">
-        <f t="shared" ref="I81:I82" si="1">IF(G81="Out",C81*-1,C81)</f>
+        <f t="shared" si="1"/>
         <v>-15697</v>
       </c>
     </row>
@@ -3024,17 +3231,20 @@
       <c r="A82" s="2">
         <v>44256</v>
       </c>
-      <c r="B82" s="23" t="s">
-        <v>63</v>
+      <c r="B82" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C82" s="3">
         <v>15697</v>
       </c>
-      <c r="D82" s="28" t="s">
-        <v>11</v>
+      <c r="D82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G82" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I82">
         <f t="shared" si="1"/>
@@ -3045,17 +3255,20 @@
       <c r="A83" s="2">
         <v>44256</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>24</v>
+      <c r="B83" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="C83" s="3">
         <v>24200</v>
       </c>
-      <c r="D83" s="25" t="s">
-        <v>44</v>
+      <c r="D83" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I83">
         <f t="shared" si="0"/>
@@ -3066,20 +3279,23 @@
       <c r="A84" s="2">
         <v>44205</v>
       </c>
-      <c r="B84" s="22" t="s">
-        <v>24</v>
+      <c r="B84" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C84" s="3">
         <v>107</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I84">
         <f t="shared" ref="I84:I85" si="2">IF(G84="Out",C84*-1,C84)</f>
@@ -3090,20 +3306,23 @@
       <c r="A85" s="2">
         <v>44205</v>
       </c>
-      <c r="B85" s="22" t="s">
-        <v>24</v>
+      <c r="B85" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C85" s="3">
         <v>107</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I85">
         <f t="shared" si="2"/>
@@ -3114,17 +3333,20 @@
       <c r="A86" s="2">
         <v>44242</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>34</v>
+      <c r="B86" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="C86" s="3">
         <v>60000</v>
       </c>
-      <c r="D86" s="28" t="s">
-        <v>6</v>
+      <c r="D86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I86">
         <f t="shared" si="0"/>
@@ -3135,17 +3357,20 @@
       <c r="A87" s="2">
         <v>44228</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>35</v>
+      <c r="B87" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="C87" s="3">
         <v>20002200</v>
       </c>
-      <c r="D87" s="25" t="s">
-        <v>44</v>
+      <c r="D87" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I87">
         <f t="shared" si="0"/>
@@ -3156,17 +3381,20 @@
       <c r="A88" s="2">
         <v>44228</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>35</v>
+      <c r="B88" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="C88" s="3">
         <v>88824</v>
       </c>
-      <c r="D88" s="28" t="s">
-        <v>8</v>
+      <c r="D88" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I88">
         <f t="shared" si="0"/>
@@ -3177,17 +3405,20 @@
       <c r="A89" s="2">
         <v>44228</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>35</v>
+      <c r="B89" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="C89" s="3">
         <v>88824</v>
       </c>
-      <c r="D89" s="28" t="s">
-        <v>6</v>
+      <c r="D89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I89">
         <f t="shared" si="0"/>
@@ -3198,17 +3429,20 @@
       <c r="A90" s="2">
         <v>44228</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>35</v>
+      <c r="B90" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="C90" s="3">
         <v>88824</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I90">
         <f t="shared" si="0"/>
@@ -3219,17 +3453,20 @@
       <c r="A91" s="2">
         <v>44228</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>35</v>
+      <c r="B91" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="C91" s="3">
         <v>88824</v>
       </c>
-      <c r="D91" s="28" t="s">
-        <v>69</v>
+      <c r="D91" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I91">
         <f t="shared" si="0"/>
@@ -3240,17 +3477,20 @@
       <c r="A92" s="2">
         <v>44244</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>26</v>
+      <c r="B92" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="C92" s="3">
         <v>218389</v>
       </c>
-      <c r="D92" s="25" t="s">
-        <v>44</v>
+      <c r="D92" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I92">
         <f t="shared" ref="I92:I123" si="3">IF(G92="Out",C92*-1,C92)</f>
@@ -3261,18 +3501,21 @@
       <c r="A93" s="2">
         <v>44255</v>
       </c>
-      <c r="B93" s="9" t="str">
+      <c r="B93" s="22" t="str">
         <f>CONCATENATE("Meo 2021.",TEXT(MONTH(A93),"00"))</f>
         <v>Meo 2021.02</v>
       </c>
       <c r="C93" s="3">
         <v>10000</v>
       </c>
-      <c r="D93" s="28" t="s">
-        <v>13</v>
+      <c r="D93" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I93">
         <f t="shared" si="3"/>
@@ -3283,18 +3526,21 @@
       <c r="A94" s="2">
         <v>44255</v>
       </c>
-      <c r="B94" s="9" t="str">
+      <c r="B94" s="22" t="str">
         <f>CONCATENATE("Meo 2021.",TEXT(MONTH(A94),"00"))</f>
         <v>Meo 2021.02</v>
       </c>
       <c r="C94" s="3">
         <v>10000</v>
       </c>
-      <c r="D94" s="28" t="s">
-        <v>6</v>
+      <c r="D94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I94">
         <f t="shared" si="3"/>
@@ -3305,17 +3551,20 @@
       <c r="A95" s="2">
         <v>44255</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>36</v>
+      <c r="B95" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C95" s="3">
         <v>2000</v>
       </c>
-      <c r="D95" s="28" t="s">
-        <v>13</v>
+      <c r="D95" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I95">
         <f t="shared" si="3"/>
@@ -3326,17 +3575,20 @@
       <c r="A96" s="2">
         <v>44255</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>36</v>
+      <c r="B96" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C96" s="3">
         <v>2000</v>
       </c>
-      <c r="D96" s="28" t="s">
-        <v>6</v>
+      <c r="D96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I96">
         <f t="shared" si="3"/>
@@ -3347,17 +3599,20 @@
       <c r="A97" s="2">
         <v>44255</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>33</v>
+      <c r="B97" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="C97" s="3">
         <v>200000</v>
       </c>
-      <c r="D97" s="28" t="s">
-        <v>6</v>
+      <c r="D97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I97">
         <f t="shared" si="3"/>
@@ -3368,17 +3623,20 @@
       <c r="A98" s="2">
         <v>44255</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>33</v>
+      <c r="B98" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="C98" s="3">
         <v>200000</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I98">
         <f t="shared" si="3"/>
@@ -3389,17 +3647,20 @@
       <c r="A99" s="2">
         <v>44256</v>
       </c>
-      <c r="B99" t="s">
-        <v>37</v>
+      <c r="B99" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="C99" s="3">
         <v>3600</v>
       </c>
-      <c r="D99" s="28" t="s">
-        <v>6</v>
+      <c r="D99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I99">
         <f t="shared" si="3"/>
@@ -3410,17 +3671,20 @@
       <c r="A100" s="2">
         <v>44256</v>
       </c>
-      <c r="B100" t="s">
-        <v>37</v>
+      <c r="B100" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="C100" s="3">
         <v>3600</v>
       </c>
-      <c r="D100" s="28" t="s">
-        <v>75</v>
+      <c r="D100" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I100">
         <f t="shared" si="3"/>
@@ -3431,19 +3695,21 @@
       <c r="A101" s="2">
         <v>44242</v>
       </c>
-      <c r="B101" s="30" t="s">
-        <v>65</v>
+      <c r="B101" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="C101" s="3">
         <v>2000</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
+        <v>121</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F101" s="16"/>
       <c r="G101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I101">
         <f t="shared" si="3"/>
@@ -3454,21 +3720,23 @@
       <c r="A102" s="2">
         <v>44253</v>
       </c>
-      <c r="B102" s="30" t="s">
-        <v>67</v>
+      <c r="B102" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="C102" s="3">
         <v>24000</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I102">
         <f t="shared" si="3"/>
@@ -3479,21 +3747,23 @@
       <c r="A103" s="2">
         <v>44253</v>
       </c>
-      <c r="B103" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" s="17">
+      <c r="B103" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="11">
         <v>24000</v>
       </c>
-      <c r="D103" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26" t="s">
-        <v>54</v>
+      <c r="D103" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I103">
         <f t="shared" si="3"/>
@@ -3504,19 +3774,21 @@
       <c r="A104" s="2">
         <v>44255</v>
       </c>
-      <c r="B104" s="30" t="s">
-        <v>47</v>
+      <c r="B104" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="C104" s="3">
         <v>20000</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F104" s="9"/>
       <c r="G104" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I104">
         <f t="shared" si="3"/>
@@ -3527,19 +3799,21 @@
       <c r="A105" s="2">
         <v>44255</v>
       </c>
-      <c r="B105" s="30" t="s">
-        <v>47</v>
+      <c r="B105" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="C105" s="3">
         <v>20000</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F105" s="9"/>
       <c r="G105" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I105">
         <f t="shared" si="3"/>
@@ -3550,18 +3824,21 @@
       <c r="A106" s="2">
         <v>44270</v>
       </c>
-      <c r="B106" s="7" t="str">
+      <c r="B106" s="33" t="str">
         <f>CONCATENATE("Insurance (Meo) 2021.",TEXT(MONTH(A106),"00"))</f>
         <v>Insurance (Meo) 2021.03</v>
       </c>
-      <c r="C106" s="34">
+      <c r="C106" s="23">
         <v>5000</v>
       </c>
-      <c r="D106" s="28" t="s">
-        <v>6</v>
+      <c r="D106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="G106" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I106">
         <f t="shared" si="3"/>
@@ -3572,18 +3849,21 @@
       <c r="A107" s="2">
         <v>44280</v>
       </c>
-      <c r="B107" s="8" t="str">
+      <c r="B107" s="22" t="str">
         <f>CONCATENATE("Salary JP 2021.",TEXT(MONTH(A107),"00"))</f>
         <v>Salary JP 2021.03</v>
       </c>
-      <c r="C107" s="34">
+      <c r="C107" s="23">
         <v>768138</v>
       </c>
-      <c r="D107" s="28" t="s">
-        <v>6</v>
+      <c r="D107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I107">
         <f t="shared" si="3"/>
@@ -3594,18 +3874,21 @@
       <c r="A108" s="2">
         <v>44280</v>
       </c>
-      <c r="B108" s="9" t="str">
+      <c r="B108" s="22" t="str">
         <f>CONCATENATE("House rental 2021.",TEXT(MONTH(A108),"00"))</f>
         <v>House rental 2021.03</v>
       </c>
-      <c r="C108" s="34">
+      <c r="C108" s="23">
         <v>121000</v>
       </c>
-      <c r="D108" s="28" t="s">
-        <v>6</v>
+      <c r="D108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I108">
         <f t="shared" si="3"/>
@@ -3616,17 +3899,20 @@
       <c r="A109" s="2">
         <v>44281</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="34">
+      <c r="B109" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="23">
         <v>77000</v>
       </c>
-      <c r="D109" s="28" t="s">
-        <v>6</v>
+      <c r="D109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="G109" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I109">
         <f t="shared" si="3"/>
@@ -3637,17 +3923,20 @@
       <c r="A110" s="2">
         <v>44281</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C110" s="34">
+      <c r="B110" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" s="23">
         <v>11980</v>
       </c>
-      <c r="D110" s="28" t="s">
-        <v>6</v>
+      <c r="D110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G110" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I110">
         <f t="shared" si="3"/>
@@ -3658,17 +3947,20 @@
       <c r="A111" s="2">
         <v>44281</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111" s="34">
+      <c r="B111" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C111" s="23">
         <v>3722</v>
       </c>
-      <c r="D111" s="28" t="s">
-        <v>13</v>
+      <c r="D111" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G111" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I111">
         <f t="shared" si="3"/>
@@ -3679,17 +3971,20 @@
       <c r="A112" s="2">
         <v>44281</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" s="34">
+      <c r="B112" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="23">
         <v>727</v>
       </c>
-      <c r="D112" s="28" t="s">
-        <v>6</v>
+      <c r="D112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G112" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I112">
         <f t="shared" si="3"/>
@@ -3700,17 +3995,20 @@
       <c r="A113" s="2">
         <v>44281</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="34">
+      <c r="B113" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" s="23">
         <v>727</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G113" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I113">
         <f t="shared" si="3"/>
@@ -3721,17 +4019,20 @@
       <c r="A114" s="2">
         <v>44281</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" s="34">
+      <c r="B114" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" s="23">
         <v>727</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G114" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I114">
         <f t="shared" si="3"/>
@@ -3742,17 +4043,20 @@
       <c r="A115" s="2">
         <v>44284</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C115" s="34">
+      <c r="B115" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="23">
         <v>21184</v>
       </c>
-      <c r="D115" s="28" t="s">
-        <v>6</v>
+      <c r="D115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G115" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I115">
         <f t="shared" si="3"/>
@@ -3763,17 +4067,20 @@
       <c r="A116" s="2">
         <v>44284</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C116" s="34">
+      <c r="B116" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="23">
         <v>980</v>
       </c>
-      <c r="D116" s="28" t="s">
-        <v>13</v>
+      <c r="D116" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G116" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I116">
         <f t="shared" si="3"/>
@@ -3784,17 +4091,20 @@
       <c r="A117" s="2">
         <v>44284</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>58</v>
+      <c r="B117" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="C117" s="3">
         <v>6956</v>
       </c>
-      <c r="D117" s="28" t="s">
-        <v>6</v>
+      <c r="D117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G117" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I117">
         <f t="shared" ref="I117:I118" si="4">IF(G117="Out",C117*-1,C117)</f>
@@ -3805,17 +4115,20 @@
       <c r="A118" s="2">
         <v>44284</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>58</v>
+      <c r="B118" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="C118" s="3">
         <v>6956</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G118" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I118">
         <f t="shared" si="4"/>
@@ -3826,17 +4139,20 @@
       <c r="A119" s="2">
         <v>44284</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C119" s="34">
+      <c r="B119" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="23">
         <v>6956</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I119">
         <f>IF(G119="Out",C119*-1,C119)</f>
@@ -3847,17 +4163,20 @@
       <c r="A120" s="2">
         <v>44284</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C120" s="34">
+      <c r="B120" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120" s="23">
         <v>106604</v>
       </c>
-      <c r="D120" s="28" t="s">
-        <v>6</v>
+      <c r="D120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G120" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I120">
         <f t="shared" si="3"/>
@@ -3868,17 +4187,20 @@
       <c r="A121" s="2">
         <v>44284</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>64</v>
+      <c r="B121" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C121" s="3">
         <v>0</v>
       </c>
-      <c r="D121" s="28" t="s">
-        <v>13</v>
+      <c r="D121" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G121" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I121">
         <f t="shared" si="3"/>
@@ -3889,17 +4211,20 @@
       <c r="A122" s="2">
         <v>44284</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>64</v>
+      <c r="B122" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C122" s="3">
         <v>1518</v>
       </c>
-      <c r="D122" s="28" t="s">
-        <v>6</v>
+      <c r="D122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G122" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I122">
         <f t="shared" si="3"/>
@@ -3910,17 +4235,20 @@
       <c r="A123" s="2">
         <v>44284</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>64</v>
+      <c r="B123" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C123" s="3">
         <v>1518</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G123" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I123">
         <f t="shared" si="3"/>
@@ -3931,17 +4259,20 @@
       <c r="A124" s="2">
         <v>44284</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>64</v>
+      <c r="B124" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C124" s="3">
         <v>1518</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G124" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I124">
         <f>IF(G124="Out",C124*-1,C124)</f>
@@ -3952,18 +4283,21 @@
       <c r="A125" s="2">
         <v>44286</v>
       </c>
-      <c r="B125" s="9" t="str">
+      <c r="B125" s="22" t="str">
         <f>CONCATENATE("Meo 2021.",TEXT(MONTH(A125),"00"))</f>
         <v>Meo 2021.03</v>
       </c>
       <c r="C125" s="3">
         <v>10000</v>
       </c>
-      <c r="D125" s="28" t="s">
-        <v>13</v>
+      <c r="D125" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I125">
         <f>IF(G125="Out",C125*-1,C125)</f>
@@ -3974,18 +4308,21 @@
       <c r="A126" s="2">
         <v>44286</v>
       </c>
-      <c r="B126" s="9" t="str">
+      <c r="B126" s="22" t="str">
         <f>CONCATENATE("Meo 2021.",TEXT(MONTH(A126),"00"))</f>
         <v>Meo 2021.03</v>
       </c>
       <c r="C126" s="3">
         <v>10000</v>
       </c>
-      <c r="D126" s="28" t="s">
-        <v>6</v>
+      <c r="D126" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I126">
         <f t="shared" ref="I126:I140" si="5">IF(G126="Out",C126*-1,C126)</f>
@@ -3996,17 +4333,20 @@
       <c r="A127" s="2">
         <v>44261</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>24</v>
+      <c r="B127" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="C127" s="3">
         <v>24200</v>
       </c>
-      <c r="D127" s="25" t="s">
-        <v>44</v>
+      <c r="D127" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I127">
         <f t="shared" si="5"/>
@@ -4017,20 +4357,23 @@
       <c r="A128" s="2">
         <v>44261</v>
       </c>
-      <c r="B128" s="22" t="s">
-        <v>24</v>
+      <c r="B128" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C128" s="3">
         <v>107</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I128">
         <f t="shared" si="5"/>
@@ -4041,20 +4384,23 @@
       <c r="A129" s="2">
         <v>44261</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>24</v>
+      <c r="B129" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C129" s="3">
         <v>107</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I129">
         <f t="shared" si="5"/>
@@ -4065,17 +4411,20 @@
       <c r="A130" s="2">
         <v>44270</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>26</v>
+      <c r="B130" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="C130" s="3">
         <v>165260</v>
       </c>
-      <c r="D130" s="25" t="s">
-        <v>44</v>
+      <c r="D130" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I130">
         <f t="shared" si="5"/>
@@ -4086,17 +4435,20 @@
       <c r="A131" s="2">
         <v>44280</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>26</v>
+      <c r="B131" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="C131" s="3">
         <v>1500</v>
       </c>
-      <c r="D131" s="25" t="s">
-        <v>44</v>
+      <c r="D131" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I131">
         <f t="shared" si="5"/>
@@ -4107,17 +4459,20 @@
       <c r="A132" s="2">
         <v>44286</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>33</v>
+      <c r="B132" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="C132" s="3">
         <v>397156</v>
       </c>
-      <c r="D132" s="28" t="s">
-        <v>6</v>
+      <c r="D132" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I132">
         <f t="shared" si="5"/>
@@ -4128,17 +4483,20 @@
       <c r="A133" s="2">
         <v>44286</v>
       </c>
-      <c r="B133" s="12" t="s">
-        <v>33</v>
+      <c r="B133" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="C133" s="3">
         <v>397156</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I133">
         <f t="shared" si="5"/>
@@ -4149,19 +4507,21 @@
       <c r="A134" s="2">
         <v>44270</v>
       </c>
-      <c r="B134" s="30" t="s">
-        <v>65</v>
+      <c r="B134" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="C134" s="3">
         <v>2000</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
+        <v>121</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F134" s="16"/>
       <c r="G134" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I134">
         <f t="shared" si="5"/>
@@ -4172,21 +4532,23 @@
       <c r="A135" s="2">
         <v>44262</v>
       </c>
-      <c r="B135" s="30" t="s">
-        <v>67</v>
+      <c r="B135" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="C135" s="3">
         <v>30000</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G135" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I135">
         <f t="shared" si="5"/>
@@ -4197,21 +4559,23 @@
       <c r="A136" s="2">
         <v>44262</v>
       </c>
-      <c r="B136" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C136" s="17">
+      <c r="B136" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" s="11">
         <v>30000</v>
       </c>
-      <c r="D136" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26" t="s">
-        <v>54</v>
+      <c r="D136" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I136">
         <f t="shared" si="5"/>
@@ -4222,21 +4586,23 @@
       <c r="A137" s="2">
         <v>44285</v>
       </c>
-      <c r="B137" s="30" t="s">
-        <v>67</v>
+      <c r="B137" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="C137" s="3">
         <v>74000</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G137" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I137">
         <f t="shared" ref="I137:I138" si="6">IF(G137="Out",C137*-1,C137)</f>
@@ -4247,21 +4613,23 @@
       <c r="A138" s="2">
         <v>44285</v>
       </c>
-      <c r="B138" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C138" s="17">
+      <c r="B138" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" s="11">
         <v>74000</v>
       </c>
-      <c r="D138" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26" t="s">
-        <v>54</v>
+      <c r="D138" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I138">
         <f t="shared" si="6"/>
@@ -4272,19 +4640,21 @@
       <c r="A139" s="2">
         <v>44286</v>
       </c>
-      <c r="B139" s="30" t="s">
-        <v>47</v>
+      <c r="B139" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="C139" s="3">
         <v>20000</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F139" s="9"/>
       <c r="G139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I139">
         <f t="shared" si="5"/>
@@ -4295,19 +4665,21 @@
       <c r="A140" s="2">
         <v>44286</v>
       </c>
-      <c r="B140" s="30" t="s">
-        <v>47</v>
+      <c r="B140" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="C140" s="3">
         <v>20000</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F140" s="9"/>
       <c r="G140" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I140">
         <f t="shared" si="5"/>
@@ -4318,17 +4690,20 @@
       <c r="A141" s="2">
         <v>44287</v>
       </c>
-      <c r="B141" s="30" t="s">
-        <v>79</v>
+      <c r="B141" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="C141" s="3">
         <v>50</v>
       </c>
-      <c r="D141" s="28" t="s">
-        <v>6</v>
+      <c r="D141" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I141">
         <f t="shared" ref="I141:I204" si="7">IF(G141="Out",C141*-1,C141)</f>
@@ -4339,17 +4714,20 @@
       <c r="A142" s="2">
         <v>44287</v>
       </c>
-      <c r="B142" s="30" t="s">
-        <v>79</v>
+      <c r="B142" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="C142" s="3">
         <v>42</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I142">
         <f t="shared" si="7"/>
@@ -4360,17 +4738,20 @@
       <c r="A143" s="2">
         <v>44198</v>
       </c>
-      <c r="B143" s="30" t="s">
-        <v>80</v>
+      <c r="B143" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C143" s="3">
         <v>2771</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G143" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I143">
         <f t="shared" si="7"/>
@@ -4382,17 +4763,20 @@
       <c r="A144" s="2">
         <v>44202</v>
       </c>
-      <c r="B144" s="30" t="s">
-        <v>81</v>
+      <c r="B144" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="C144" s="3">
         <v>2190</v>
       </c>
       <c r="D144" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="G144" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I144">
         <f t="shared" si="7"/>
@@ -4401,86 +4785,98 @@
       <c r="K144" s="3"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="35">
+      <c r="A145" s="24">
         <v>44206</v>
       </c>
-      <c r="B145" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C145" s="37">
+      <c r="B145" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145" s="26">
         <v>4761</v>
       </c>
       <c r="D145" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G145" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I145">
         <f t="shared" si="7"/>
         <v>-4761</v>
       </c>
-      <c r="K145" s="37"/>
+      <c r="K145" s="26"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="35">
+      <c r="A146" s="24">
         <v>44212</v>
       </c>
-      <c r="B146" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C146" s="37">
+      <c r="B146" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C146" s="26">
         <v>6401</v>
       </c>
       <c r="D146" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G146" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I146">
         <f t="shared" si="7"/>
         <v>-6401</v>
       </c>
-      <c r="K146" s="37"/>
+      <c r="K146" s="26"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="35">
+      <c r="A147" s="24">
         <v>44215</v>
       </c>
-      <c r="B147" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C147" s="37">
+      <c r="B147" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C147" s="26">
         <v>2728</v>
       </c>
       <c r="D147" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G147" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I147">
         <f t="shared" si="7"/>
         <v>-2728</v>
       </c>
-      <c r="K147" s="37"/>
+      <c r="K147" s="26"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>44222</v>
       </c>
-      <c r="B148" s="30" t="s">
-        <v>82</v>
+      <c r="B148" s="32" t="s">
+        <v>73</v>
       </c>
       <c r="C148" s="3">
         <v>4615</v>
       </c>
       <c r="D148" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="G148" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I148">
         <f t="shared" si="7"/>
@@ -4492,17 +4888,20 @@
       <c r="A149" s="2">
         <v>44223</v>
       </c>
-      <c r="B149" s="30" t="s">
-        <v>80</v>
+      <c r="B149" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C149" s="3">
         <v>3875</v>
       </c>
       <c r="D149" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G149" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I149">
         <f t="shared" si="7"/>
@@ -4514,17 +4913,20 @@
       <c r="A150" s="2">
         <v>44231</v>
       </c>
-      <c r="B150" s="30" t="s">
-        <v>80</v>
+      <c r="B150" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C150" s="3">
         <v>2276</v>
       </c>
       <c r="D150" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G150" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I150">
         <f t="shared" si="7"/>
@@ -4536,17 +4938,20 @@
       <c r="A151" s="2">
         <v>44231</v>
       </c>
-      <c r="B151" s="30" t="s">
-        <v>83</v>
+      <c r="B151" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="C151" s="3">
         <v>429</v>
       </c>
       <c r="D151" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I151">
         <f t="shared" si="7"/>
@@ -4558,39 +4963,45 @@
       <c r="A152" s="2">
         <v>44238</v>
       </c>
-      <c r="B152" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C152" s="17">
+      <c r="B152" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="11">
         <v>800</v>
       </c>
-      <c r="D152" s="14" t="s">
-        <v>75</v>
+      <c r="D152" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G152" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I152">
         <f t="shared" si="7"/>
         <v>-800</v>
       </c>
-      <c r="K152" s="17"/>
+      <c r="K152" s="11"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>44243</v>
       </c>
-      <c r="B153" s="30" t="s">
-        <v>86</v>
+      <c r="B153" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="C153" s="3">
         <v>5753</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G153" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I153">
         <f t="shared" si="7"/>
@@ -4602,17 +5013,20 @@
       <c r="A154" s="2">
         <v>44243</v>
       </c>
-      <c r="B154" s="30" t="s">
-        <v>80</v>
+      <c r="B154" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C154" s="3">
         <v>2379</v>
       </c>
       <c r="D154" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G154" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I154">
         <f t="shared" si="7"/>
@@ -4624,17 +5038,20 @@
       <c r="A155" s="2">
         <v>44249</v>
       </c>
-      <c r="B155" s="30" t="s">
-        <v>89</v>
+      <c r="B155" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="C155" s="3">
         <v>10000</v>
       </c>
       <c r="D155" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="G155" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I155">
         <f t="shared" si="7"/>
@@ -4646,17 +5063,20 @@
       <c r="A156" s="2">
         <v>44249</v>
       </c>
-      <c r="B156" s="30" t="s">
-        <v>88</v>
+      <c r="B156" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="C156" s="3">
         <v>10000</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G156" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I156">
         <f t="shared" si="7"/>
@@ -4668,17 +5088,20 @@
       <c r="A157" s="2">
         <v>44250</v>
       </c>
-      <c r="B157" s="30" t="s">
-        <v>80</v>
+      <c r="B157" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C157" s="3">
         <v>2409</v>
       </c>
       <c r="D157" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G157" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I157">
         <f t="shared" si="7"/>
@@ -4690,17 +5113,20 @@
       <c r="A158" s="2">
         <v>44250</v>
       </c>
-      <c r="B158" s="30" t="s">
-        <v>90</v>
+      <c r="B158" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C158" s="3">
         <v>1000</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G158" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I158">
         <f t="shared" si="7"/>
@@ -4712,17 +5138,20 @@
       <c r="A159" s="2">
         <v>44250</v>
       </c>
-      <c r="B159" s="30" t="s">
-        <v>90</v>
+      <c r="B159" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C159" s="3">
         <v>1000</v>
       </c>
       <c r="D159" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="G159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I159">
         <f t="shared" si="7"/>
@@ -4734,17 +5163,20 @@
       <c r="A160" s="2">
         <v>44250</v>
       </c>
-      <c r="B160" s="30" t="s">
-        <v>90</v>
+      <c r="B160" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C160" s="3">
         <v>1000</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G160" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I160">
         <f t="shared" si="7"/>
@@ -4756,17 +5188,20 @@
       <c r="A161" s="2">
         <v>44250</v>
       </c>
-      <c r="B161" s="30" t="s">
-        <v>91</v>
+      <c r="B161" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="C161" s="3">
         <v>590</v>
       </c>
       <c r="D161" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G161" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I161">
         <f t="shared" si="7"/>
@@ -4778,17 +5213,20 @@
       <c r="A162" s="2">
         <v>44250</v>
       </c>
-      <c r="B162" s="30" t="s">
-        <v>91</v>
+      <c r="B162" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="C162" s="3">
         <v>590</v>
       </c>
       <c r="D162" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G162" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I162">
         <f t="shared" si="7"/>
@@ -4800,17 +5238,20 @@
       <c r="A163" s="2">
         <v>44253</v>
       </c>
-      <c r="B163" s="30" t="s">
-        <v>92</v>
+      <c r="B163" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="C163" s="3">
         <v>660</v>
       </c>
       <c r="D163" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="G163" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I163">
         <f t="shared" si="7"/>
@@ -4822,17 +5263,20 @@
       <c r="A164" s="2">
         <v>44253</v>
       </c>
-      <c r="B164" s="30" t="s">
-        <v>80</v>
+      <c r="B164" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C164" s="3">
         <v>3268</v>
       </c>
       <c r="D164" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G164" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I164">
         <f t="shared" si="7"/>
@@ -4844,17 +5288,20 @@
       <c r="A165" s="2">
         <v>44254</v>
       </c>
-      <c r="B165" s="30" t="s">
-        <v>94</v>
+      <c r="B165" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="C165" s="3">
         <v>1200</v>
       </c>
       <c r="D165" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="G165" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I165">
         <f t="shared" si="7"/>
@@ -4866,17 +5313,20 @@
       <c r="A166" s="2">
         <v>44254</v>
       </c>
-      <c r="B166" s="30" t="s">
-        <v>95</v>
+      <c r="B166" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="C166" s="3">
         <v>2210</v>
       </c>
       <c r="D166" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G166" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I166">
         <f t="shared" si="7"/>
@@ -4888,17 +5338,20 @@
       <c r="A167" s="2">
         <v>44256</v>
       </c>
-      <c r="B167" s="30" t="s">
-        <v>96</v>
+      <c r="B167" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="C167" s="3">
         <v>1500</v>
       </c>
       <c r="D167" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G167" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I167">
         <f t="shared" si="7"/>
@@ -4910,17 +5363,20 @@
       <c r="A168" s="2">
         <v>44256</v>
       </c>
-      <c r="B168" s="30" t="s">
-        <v>97</v>
+      <c r="B168" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="C168" s="3">
         <v>2400</v>
       </c>
       <c r="D168" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G168" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I168">
         <f t="shared" si="7"/>
@@ -4932,17 +5388,20 @@
       <c r="A169" s="2">
         <v>44256</v>
       </c>
-      <c r="B169" s="30" t="s">
-        <v>97</v>
+      <c r="B169" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="C169" s="3">
         <v>2400</v>
       </c>
       <c r="D169" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G169" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I169">
         <f t="shared" si="7"/>
@@ -4953,17 +5412,20 @@
       <c r="A170" s="2">
         <v>44256</v>
       </c>
-      <c r="B170" s="30" t="s">
-        <v>97</v>
+      <c r="B170" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="C170" s="3">
         <v>2400</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G170" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I170">
         <f t="shared" si="7"/>
@@ -4974,17 +5436,20 @@
       <c r="A171" s="2">
         <v>44257</v>
       </c>
-      <c r="B171" s="30" t="s">
-        <v>80</v>
+      <c r="B171" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C171" s="3">
         <v>6955</v>
       </c>
       <c r="D171" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G171" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I171">
         <f t="shared" si="7"/>
@@ -4995,17 +5460,20 @@
       <c r="A172" s="2">
         <v>44261</v>
       </c>
-      <c r="B172" s="30" t="s">
-        <v>98</v>
+      <c r="B172" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="C172" s="3">
         <v>1100</v>
       </c>
       <c r="D172" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="G172" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I172">
         <f t="shared" si="7"/>
@@ -5016,17 +5484,20 @@
       <c r="A173" s="2">
         <v>44261</v>
       </c>
-      <c r="B173" s="30" t="s">
-        <v>98</v>
+      <c r="B173" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="C173" s="3">
         <v>1100</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G173" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I173">
         <f t="shared" si="7"/>
@@ -5037,17 +5508,20 @@
       <c r="A174" s="2">
         <v>44261</v>
       </c>
-      <c r="B174" s="30" t="s">
-        <v>98</v>
+      <c r="B174" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="C174" s="3">
         <v>1100</v>
       </c>
       <c r="D174" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G174" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I174">
         <f t="shared" si="7"/>
@@ -5058,17 +5532,20 @@
       <c r="A175" s="2">
         <v>44261</v>
       </c>
-      <c r="B175" s="30" t="s">
-        <v>80</v>
+      <c r="B175" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C175" s="3">
         <v>9550</v>
       </c>
       <c r="D175" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I175">
         <f t="shared" si="7"/>
@@ -5079,17 +5556,20 @@
       <c r="A176" s="2">
         <v>44264</v>
       </c>
-      <c r="B176" s="30" t="s">
-        <v>80</v>
+      <c r="B176" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C176" s="3">
         <v>3522</v>
       </c>
       <c r="D176" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I176">
         <f t="shared" si="7"/>
@@ -5100,17 +5580,20 @@
       <c r="A177" s="2">
         <v>44263</v>
       </c>
-      <c r="B177" s="30" t="s">
-        <v>80</v>
+      <c r="B177" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C177" s="3">
         <v>2303</v>
       </c>
       <c r="D177" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I177">
         <f t="shared" si="7"/>
@@ -5121,17 +5604,20 @@
       <c r="A178" s="2">
         <v>44269</v>
       </c>
-      <c r="B178" s="30" t="s">
-        <v>99</v>
+      <c r="B178" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="C178" s="3">
         <v>2410</v>
       </c>
       <c r="D178" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="G178" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I178">
         <f t="shared" si="7"/>
@@ -5142,17 +5628,20 @@
       <c r="A179" s="2">
         <v>44266</v>
       </c>
-      <c r="B179" s="30" t="s">
-        <v>80</v>
+      <c r="B179" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C179" s="3">
         <v>2925</v>
       </c>
       <c r="D179" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G179" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I179">
         <f t="shared" si="7"/>
@@ -5163,17 +5652,20 @@
       <c r="A180" s="2">
         <v>44269</v>
       </c>
-      <c r="B180" s="30" t="s">
-        <v>100</v>
+      <c r="B180" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="C180" s="3">
         <v>2530</v>
       </c>
       <c r="D180" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G180" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I180">
         <f t="shared" si="7"/>
@@ -5184,17 +5676,20 @@
       <c r="A181" s="2">
         <v>44269</v>
       </c>
-      <c r="B181" s="30" t="s">
-        <v>102</v>
+      <c r="B181" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="C181" s="3">
         <v>1480</v>
       </c>
       <c r="D181" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G181" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I181">
         <f t="shared" si="7"/>
@@ -5205,17 +5700,20 @@
       <c r="A182" s="2">
         <v>44269</v>
       </c>
-      <c r="B182" s="30" t="s">
-        <v>80</v>
+      <c r="B182" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C182" s="3">
         <v>3098</v>
       </c>
       <c r="D182" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G182" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I182">
         <f t="shared" si="7"/>
@@ -5226,17 +5724,20 @@
       <c r="A183" s="2">
         <v>44275</v>
       </c>
-      <c r="B183" s="30" t="s">
-        <v>80</v>
+      <c r="B183" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C183" s="3">
         <v>4280</v>
       </c>
       <c r="D183" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G183" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I183">
         <f t="shared" si="7"/>
@@ -5247,17 +5748,20 @@
       <c r="A184" s="2">
         <v>44278</v>
       </c>
-      <c r="B184" s="30" t="s">
-        <v>103</v>
+      <c r="B184" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="C184" s="3">
         <v>240</v>
       </c>
       <c r="D184" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G184" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I184">
         <f t="shared" si="7"/>
@@ -5268,17 +5772,20 @@
       <c r="A185" s="2">
         <v>44278</v>
       </c>
-      <c r="B185" s="30" t="s">
-        <v>103</v>
+      <c r="B185" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="C185" s="3">
         <v>240</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="G185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I185">
         <f t="shared" si="7"/>
@@ -5289,17 +5796,20 @@
       <c r="A186" s="2">
         <v>44278</v>
       </c>
-      <c r="B186" s="30" t="s">
-        <v>104</v>
+      <c r="B186" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="C186" s="3">
         <v>319</v>
       </c>
       <c r="D186" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="G186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I186">
         <f t="shared" si="7"/>
@@ -5310,17 +5820,20 @@
       <c r="A187" s="2">
         <v>44283</v>
       </c>
-      <c r="B187" s="30" t="s">
-        <v>105</v>
+      <c r="B187" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="C187" s="3">
         <v>3000</v>
       </c>
       <c r="D187" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G187" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I187">
         <f t="shared" si="7"/>
@@ -5331,17 +5844,20 @@
       <c r="A188" s="2">
         <v>44283</v>
       </c>
-      <c r="B188" s="30" t="s">
-        <v>105</v>
+      <c r="B188" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="C188" s="3">
         <v>3000</v>
       </c>
       <c r="D188" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G188" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I188">
         <f t="shared" si="7"/>
@@ -5352,17 +5868,20 @@
       <c r="A189" s="2">
         <v>44284</v>
       </c>
-      <c r="B189" s="30" t="s">
-        <v>80</v>
+      <c r="B189" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C189" s="3">
         <v>2798</v>
       </c>
       <c r="D189" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="G189" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I189">
         <f t="shared" si="7"/>
@@ -5373,17 +5892,20 @@
       <c r="A190" s="2">
         <v>44287</v>
       </c>
-      <c r="B190" s="30" t="s">
-        <v>106</v>
+      <c r="B190" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="C190" s="3">
         <v>20000</v>
       </c>
       <c r="D190" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G190" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I190">
         <f t="shared" si="7"/>
@@ -5394,17 +5916,20 @@
       <c r="A191" s="2">
         <v>44287</v>
       </c>
-      <c r="B191" s="30" t="s">
-        <v>107</v>
+      <c r="B191" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="C191" s="3">
         <v>10000</v>
       </c>
       <c r="D191" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G191" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I191">
         <f t="shared" si="7"/>
@@ -5415,17 +5940,20 @@
       <c r="A192" s="2">
         <v>44287</v>
       </c>
-      <c r="B192" s="30" t="s">
-        <v>107</v>
+      <c r="B192" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="C192" s="3">
         <v>10000</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G192" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I192">
         <f t="shared" si="7"/>
@@ -5436,17 +5964,20 @@
       <c r="A193" s="2">
         <v>44198</v>
       </c>
-      <c r="B193" s="30" t="s">
-        <v>108</v>
+      <c r="B193" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="C193" s="3">
         <v>2602</v>
       </c>
       <c r="D193" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="G193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I193">
         <f t="shared" si="7"/>
@@ -5457,17 +5988,20 @@
       <c r="A194" s="2">
         <v>44198</v>
       </c>
-      <c r="B194" s="30" t="s">
-        <v>109</v>
+      <c r="B194" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="C194" s="3">
         <v>158</v>
       </c>
       <c r="D194" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="G194" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I194">
         <f t="shared" si="7"/>
@@ -5478,17 +6012,20 @@
       <c r="A195" s="2">
         <v>44198</v>
       </c>
-      <c r="B195" s="30" t="s">
-        <v>110</v>
+      <c r="B195" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C195" s="3">
         <v>2048</v>
       </c>
       <c r="D195" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="G195" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I195">
         <f t="shared" si="7"/>
@@ -5499,20 +6036,20 @@
       <c r="A196" s="2">
         <v>44199</v>
       </c>
-      <c r="B196" s="30" t="s">
-        <v>111</v>
+      <c r="B196" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="C196" s="3">
         <v>1650</v>
       </c>
       <c r="D196" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E196" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G196" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I196">
         <f t="shared" si="7"/>
@@ -5523,17 +6060,20 @@
       <c r="A197" s="2">
         <v>44226</v>
       </c>
-      <c r="B197" s="30" t="s">
-        <v>113</v>
+      <c r="B197" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="C197" s="3">
         <v>12793</v>
       </c>
       <c r="D197" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="G197" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I197">
         <f t="shared" si="7"/>
@@ -5544,17 +6084,20 @@
       <c r="A198" s="2">
         <v>44256</v>
       </c>
-      <c r="B198" s="30" t="s">
-        <v>113</v>
+      <c r="B198" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="C198" s="3">
         <v>11533</v>
       </c>
       <c r="D198" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="G198" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I198">
         <f t="shared" si="7"/>
@@ -5565,20 +6108,20 @@
       <c r="A199" s="2">
         <v>44204</v>
       </c>
-      <c r="B199" s="30" t="s">
-        <v>114</v>
+      <c r="B199" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="C199" s="3">
         <v>2500</v>
       </c>
       <c r="D199" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E199" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G199" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I199">
         <f t="shared" si="7"/>
@@ -5589,20 +6132,20 @@
       <c r="A200" s="2">
         <v>44244</v>
       </c>
-      <c r="B200" s="30" t="s">
-        <v>114</v>
+      <c r="B200" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="C200" s="3">
         <v>1270</v>
       </c>
       <c r="D200" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E200" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G200" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I200">
         <f t="shared" si="7"/>
@@ -5613,20 +6156,20 @@
       <c r="A201" s="2">
         <v>44256</v>
       </c>
-      <c r="B201" s="30" t="s">
-        <v>114</v>
+      <c r="B201" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="C201" s="3">
         <v>900</v>
       </c>
       <c r="D201" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E201" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G201" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I201">
         <f t="shared" si="7"/>
@@ -5637,20 +6180,20 @@
       <c r="A202" s="2">
         <v>44270</v>
       </c>
-      <c r="B202" s="30" t="s">
-        <v>114</v>
+      <c r="B202" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="C202" s="3">
         <v>900</v>
       </c>
       <c r="D202" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E202" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G202" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I202">
         <f t="shared" si="7"/>
@@ -5661,23 +6204,23 @@
       <c r="A203" s="2">
         <v>44226</v>
       </c>
-      <c r="B203" s="30" t="s">
-        <v>117</v>
+      <c r="B203" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="C203" s="3">
         <v>6408</v>
       </c>
       <c r="D203" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E203" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="G203" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H203" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I203">
         <f t="shared" si="7"/>
@@ -5688,20 +6231,20 @@
       <c r="A204" s="2">
         <v>44207</v>
       </c>
-      <c r="B204" s="30" t="s">
-        <v>101</v>
+      <c r="B204" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="C204" s="3">
         <v>200</v>
       </c>
       <c r="D204" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E204" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I204">
         <f t="shared" si="7"/>
@@ -5712,23 +6255,23 @@
       <c r="A205" s="2">
         <v>44210</v>
       </c>
-      <c r="B205" s="30" t="s">
-        <v>101</v>
+      <c r="B205" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="C205" s="3">
         <v>2400</v>
       </c>
       <c r="D205" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E205" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G205" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I205">
-        <f t="shared" ref="I205:I211" si="8">IF(G205="Out",C205*-1,C205)</f>
+        <f t="shared" ref="I205:I219" si="8">IF(G205="Out",C205*-1,C205)</f>
         <v>2400</v>
       </c>
     </row>
@@ -5736,20 +6279,20 @@
       <c r="A206" s="2">
         <v>44214</v>
       </c>
-      <c r="B206" s="30" t="s">
-        <v>101</v>
+      <c r="B206" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="C206" s="3">
         <v>1500</v>
       </c>
       <c r="D206" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E206" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I206">
         <f t="shared" si="8"/>
@@ -5760,20 +6303,20 @@
       <c r="A207" s="2">
         <v>44227</v>
       </c>
-      <c r="B207" s="30" t="s">
-        <v>101</v>
+      <c r="B207" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="C207" s="3">
         <v>5600</v>
       </c>
       <c r="D207" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E207" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G207" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I207">
         <f t="shared" si="8"/>
@@ -5784,20 +6327,20 @@
       <c r="A208" s="2">
         <v>44229</v>
       </c>
-      <c r="B208" s="30" t="s">
-        <v>101</v>
+      <c r="B208" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="C208" s="3">
         <v>3060</v>
       </c>
       <c r="D208" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E208" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I208">
         <f t="shared" si="8"/>
@@ -5808,23 +6351,23 @@
       <c r="A209" s="2">
         <v>44286</v>
       </c>
-      <c r="B209" s="30" t="s">
-        <v>120</v>
+      <c r="B209" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="C209" s="3">
         <v>3123</v>
       </c>
       <c r="D209" t="s">
-        <v>75</v>
-      </c>
-      <c r="E209" s="10" t="s">
-        <v>119</v>
+        <v>67</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="G209" t="s">
-        <v>52</v>
-      </c>
-      <c r="H209" s="10" t="s">
-        <v>123</v>
+        <v>50</v>
+      </c>
+      <c r="H209" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="I209">
         <f t="shared" si="8"/>
@@ -5835,23 +6378,23 @@
       <c r="A210" s="2">
         <v>44255</v>
       </c>
-      <c r="B210" s="30" t="s">
-        <v>121</v>
+      <c r="B210" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="C210" s="3">
         <v>2013</v>
       </c>
       <c r="D210" t="s">
-        <v>75</v>
-      </c>
-      <c r="E210" s="10" t="s">
-        <v>119</v>
+        <v>67</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="G210" t="s">
-        <v>52</v>
-      </c>
-      <c r="H210" s="10" t="s">
-        <v>123</v>
+        <v>50</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="I210">
         <f t="shared" si="8"/>
@@ -5862,31 +6405,224 @@
       <c r="A211" s="2">
         <v>44227</v>
       </c>
-      <c r="B211" s="30" t="s">
-        <v>122</v>
+      <c r="B211" s="32" t="s">
+        <v>113</v>
       </c>
       <c r="C211" s="3">
         <v>961</v>
       </c>
       <c r="D211" t="s">
-        <v>75</v>
-      </c>
-      <c r="E211" s="10" t="s">
-        <v>119</v>
+        <v>67</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="G211" t="s">
-        <v>52</v>
-      </c>
-      <c r="H211" s="10" t="s">
-        <v>123</v>
+        <v>50</v>
+      </c>
+      <c r="H211" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="I211">
         <f t="shared" si="8"/>
         <v>961</v>
       </c>
     </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B212" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C212" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D212" t="s">
+        <v>75</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G212" t="s">
+        <v>50</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B213" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C213" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D213" t="s">
+        <v>84</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G213" t="s">
+        <v>51</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="8"/>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B214" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C214" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G214" t="s">
+        <v>51</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="8"/>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B215" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C215" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G215" t="s">
+        <v>50</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B216" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C216" s="3">
+        <v>12000</v>
+      </c>
+      <c r="D216" t="s">
+        <v>84</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G216" t="s">
+        <v>51</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="8"/>
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B217" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C217" s="3">
+        <v>24000</v>
+      </c>
+      <c r="D217" t="s">
+        <v>84</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G217" t="s">
+        <v>51</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B218" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C218" s="3">
+        <v>24000</v>
+      </c>
+      <c r="D218" t="s">
+        <v>84</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G218" t="s">
+        <v>51</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B219" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C219" s="3">
+        <v>32842</v>
+      </c>
+      <c r="D219" t="s">
+        <v>84</v>
+      </c>
+      <c r="E219" t="s">
+        <v>103</v>
+      </c>
+      <c r="G219" t="s">
+        <v>51</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="8"/>
+        <v>-32842</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P211" xr:uid="{528EF4BF-5565-314F-90E0-92999827C614}"/>
+  <autoFilter ref="A1:P219" xr:uid="{528EF4BF-5565-314F-90E0-92999827C614}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/Manual_Balance.xlsx
+++ b/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/Manual_Balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhphan/PycharmProjects/HomeAccounting/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029DDB20-082F-C34E-BE9B-C20F77668CE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F007297-4245-4541-9648-E80FF91A0FF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19360" yWindow="8540" windowWidth="28040" windowHeight="17440" xr2:uid="{211A79C5-B985-E94E-B0C1-2BF2BF8B9373}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="141">
   <si>
     <t>Date</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>Medical</t>
+  </si>
+  <si>
+    <t>Uniqlo</t>
+  </si>
+  <si>
+    <t>Fashion</t>
   </si>
 </sst>
 </file>
@@ -890,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C746422B-7B49-664B-A814-9E0769654701}">
-  <dimension ref="A1:O219"/>
+  <dimension ref="A1:O221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1309,7 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>10564742</v>
+        <v>10566161</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1446,7 +1452,7 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>626752</v>
+        <v>625333</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -6210,7 +6216,7 @@
         <v>50</v>
       </c>
       <c r="I205" s="7">
-        <f t="shared" ref="I205:I219" si="9">IF(G205="Out",C205*-1,C205)</f>
+        <f t="shared" ref="I205:I221" si="9">IF(G205="Out",C205*-1,C205)</f>
         <v>2400</v>
       </c>
     </row>
@@ -6477,7 +6483,7 @@
         <v>84</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G216" s="7" t="s">
         <v>51</v>
@@ -6501,7 +6507,7 @@
         <v>84</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G217" s="7" t="s">
         <v>51</v>
@@ -6525,7 +6531,7 @@
         <v>84</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G218" s="7" t="s">
         <v>51</v>
@@ -6557,6 +6563,54 @@
       <c r="I219" s="7">
         <f t="shared" si="9"/>
         <v>-32842</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="11">
+        <v>44212</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C220" s="12">
+        <v>1419</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I220" s="7">
+        <f t="shared" si="9"/>
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="11">
+        <v>44212</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C221" s="12">
+        <v>1419</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I221" s="7">
+        <f t="shared" si="9"/>
+        <v>-1419</v>
       </c>
     </row>
   </sheetData>

--- a/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/Manual_Balance.xlsx
+++ b/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/Manual_Balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhphan/PycharmProjects/HomeAccounting/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F007297-4245-4541-9648-E80FF91A0FF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A162B8C8-F014-2344-B4B7-A32B3DFFEDB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19360" yWindow="8540" windowWidth="28040" windowHeight="17440" xr2:uid="{211A79C5-B985-E94E-B0C1-2BF2BF8B9373}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>Fashion</t>
+  </si>
+  <si>
+    <t>Tamaplaza Terrace shopping</t>
   </si>
 </sst>
 </file>
@@ -896,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C746422B-7B49-664B-A814-9E0769654701}">
-  <dimension ref="A1:O221"/>
+  <dimension ref="A1:O225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,7 +1312,7 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>10566161</v>
+        <v>10578833</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1452,7 +1455,7 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>625333</v>
+        <v>612661</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -6611,6 +6614,102 @@
       <c r="I221" s="7">
         <f t="shared" si="9"/>
         <v>-1419</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="11">
+        <v>44179</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C222" s="12">
+        <v>11055</v>
+      </c>
+      <c r="D222" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I222" s="7">
+        <f t="shared" ref="I222:I225" si="10">IF(G222="Out",C222*-1,C222)</f>
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="11">
+        <v>44179</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C223" s="12">
+        <v>11055</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I223" s="7">
+        <f t="shared" si="10"/>
+        <v>-11055</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="11">
+        <v>44184</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C224" s="12">
+        <v>1617</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I224" s="7">
+        <f t="shared" si="10"/>
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" s="11">
+        <v>44184</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C225" s="12">
+        <v>1617</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I225" s="7">
+        <f t="shared" si="10"/>
+        <v>-1617</v>
       </c>
     </row>
   </sheetData>

--- a/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/Manual_Balance.xlsx
+++ b/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/Manual_Balance.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhphan/PycharmProjects/HomeAccounting/trial/MeoDemo_Final/Prepare_Manual/SpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A162B8C8-F014-2344-B4B7-A32B3DFFEDB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BAC50E-B0E9-0343-A129-E6482A334391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19360" yWindow="8540" windowWidth="28040" windowHeight="17440" xr2:uid="{211A79C5-B985-E94E-B0C1-2BF2BF8B9373}"/>
+    <workbookView xWindow="7240" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{211A79C5-B985-E94E-B0C1-2BF2BF8B9373}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$225</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C746422B-7B49-664B-A814-9E0769654701}">
   <dimension ref="A1:O225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6713,7 +6713,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P219" xr:uid="{528EF4BF-5565-314F-90E0-92999827C614}"/>
+  <autoFilter ref="A1:P225" xr:uid="{528EF4BF-5565-314F-90E0-92999827C614}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
